--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9F2454-BAEB-4511-AC53-0B504E61F257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3728219A-9C7E-4D84-9F1E-1D4AE86F4D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>pacto</t>
-  </si>
-  <si>
     <t>partido</t>
   </si>
   <si>
@@ -433,6 +430,9 @@
   </si>
   <si>
     <t>region</t>
+  </si>
+  <si>
+    <t>Lista</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +820,8 @@
     <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -828,22 +829,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -854,16 +855,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -877,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -900,16 +901,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -917,68 +918,68 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -992,16 +993,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1009,45 +1010,45 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1055,22 +1056,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1078,25 +1079,25 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1107,16 +1108,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1130,16 +1131,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1153,16 +1154,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1176,16 +1177,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1199,16 +1200,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1222,16 +1223,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1245,16 +1246,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1268,16 +1269,16 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1291,16 +1292,16 @@
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1314,16 +1315,16 @@
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -1337,16 +1338,16 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -1360,16 +1361,16 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -1383,16 +1384,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -1406,16 +1407,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
@@ -1429,16 +1430,16 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
@@ -1452,16 +1453,16 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -1475,16 +1476,16 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -1498,16 +1499,16 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -1521,16 +1522,16 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -1544,16 +1545,16 @@
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
@@ -1567,16 +1568,16 @@
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
@@ -1590,16 +1591,16 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
@@ -1613,16 +1614,16 @@
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -1636,16 +1637,16 @@
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
@@ -1659,16 +1660,16 @@
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -1682,16 +1683,16 @@
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
@@ -1705,16 +1706,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
@@ -1728,16 +1729,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -1751,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -1774,16 +1775,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -1797,16 +1798,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
@@ -1820,16 +1821,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -1843,16 +1844,16 @@
         <v>9</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -1860,68 +1861,68 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B46" s="2">
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B47" s="2">
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B48" s="2">
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -1929,22 +1930,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B49" s="2">
         <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -1952,48 +1953,48 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B50" s="2">
         <v>9</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B51" s="2">
         <v>9</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2004,16 +2005,16 @@
         <v>9.5</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
@@ -2027,16 +2028,16 @@
         <v>9.5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -2050,16 +2051,16 @@
         <v>9.5</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G54" s="2">
         <v>0</v>
@@ -2073,16 +2074,16 @@
         <v>10</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G55" s="2">
         <v>0</v>
@@ -2090,22 +2091,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B56" s="2">
         <v>10</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
@@ -2113,25 +2114,25 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B57" s="2">
         <v>10</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2142,16 +2143,16 @@
         <v>10</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -2165,16 +2166,16 @@
         <v>10</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
@@ -2182,22 +2183,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B60" s="2">
         <v>10</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
@@ -2205,25 +2206,25 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B61" s="2">
         <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2234,16 +2235,16 @@
         <v>11</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G62" s="2">
         <v>0</v>
@@ -2257,16 +2258,16 @@
         <v>11</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -2280,16 +2281,16 @@
         <v>11</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
@@ -2303,16 +2304,16 @@
         <v>11</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2">
         <v>0</v>
@@ -2326,16 +2327,16 @@
         <v>11</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
@@ -2349,16 +2350,16 @@
         <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G67" s="2">
         <v>0</v>
@@ -2372,16 +2373,16 @@
         <v>11</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -2389,45 +2390,45 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B69" s="2">
         <v>12</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" s="2">
         <v>12</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
@@ -2435,22 +2436,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" s="2">
         <v>12</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G71" s="2">
         <v>0</v>
@@ -2458,22 +2459,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B72" s="2">
         <v>12</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
@@ -2481,25 +2482,25 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73" s="2">
         <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="G73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2510,16 +2511,16 @@
         <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G74" s="2">
         <v>0</v>
@@ -2533,16 +2534,16 @@
         <v>13</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
@@ -2556,16 +2557,16 @@
         <v>13</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" s="2">
         <v>0</v>
@@ -2573,22 +2574,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B77" s="2">
         <v>13</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G77" s="2">
         <v>0</v>
@@ -2596,22 +2597,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B78" s="2">
         <v>13</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2">
         <v>0</v>
@@ -2619,22 +2620,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" s="2">
         <v>13</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -2648,16 +2649,16 @@
         <v>13</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -2671,16 +2672,16 @@
         <v>13</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
@@ -2694,16 +2695,16 @@
         <v>13</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2">
         <v>0</v>
@@ -2717,16 +2718,16 @@
         <v>14</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G83" s="2">
         <v>0</v>
@@ -2740,16 +2741,16 @@
         <v>14</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84" s="2">
         <v>0</v>
@@ -2763,16 +2764,16 @@
         <v>15</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -2786,16 +2787,16 @@
         <v>15</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G86" s="2">
         <v>0</v>
@@ -2803,22 +2804,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B87" s="2">
         <v>15</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
@@ -2826,45 +2827,45 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" s="2">
         <v>15</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89" s="2">
         <v>15</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="G89" s="2">
         <v>0</v>
@@ -2872,25 +2873,25 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B90" s="2">
         <v>15</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="G90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3728219A-9C7E-4D84-9F1E-1D4AE86F4D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31DF0DB-E481-49CF-9864-90888541A0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Luis Levi</t>
   </si>
   <si>
-    <t>Arica y Parinacota</t>
-  </si>
-  <si>
     <t>Jorge Díaz</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>Enrique Inostroza</t>
   </si>
   <si>
-    <t>Chiguayante</t>
-  </si>
-  <si>
     <t>Mayerlin Suárez</t>
   </si>
   <si>
@@ -345,9 +339,6 @@
     <t>Pablo Silva</t>
   </si>
   <si>
-    <t>RM</t>
-  </si>
-  <si>
     <t>Karina Oliva</t>
   </si>
   <si>
@@ -433,6 +424,12 @@
   </si>
   <si>
     <t>Lista</t>
+  </si>
+  <si>
+    <t>Arica</t>
+  </si>
+  <si>
+    <t>Metropolitana</t>
   </si>
 </sst>
 </file>
@@ -811,7 +808,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C85" sqref="C85:C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,22 +826,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -855,10 +852,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -878,16 +875,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -901,16 +898,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -924,16 +921,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -947,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
@@ -970,10 +967,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -993,10 +990,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
@@ -1016,16 +1013,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1039,10 +1036,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
@@ -1062,10 +1059,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
@@ -1085,10 +1082,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
@@ -1269,10 +1266,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>5</v>
@@ -1292,10 +1289,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>8</v>
@@ -1315,16 +1312,16 @@
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -1338,10 +1335,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>5</v>
@@ -1361,10 +1358,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
@@ -1384,10 +1381,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>8</v>
@@ -1407,10 +1404,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>5</v>
@@ -1430,10 +1427,10 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
@@ -1453,10 +1450,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>5</v>
@@ -1476,10 +1473,10 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
@@ -1499,10 +1496,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>8</v>
@@ -1522,16 +1519,16 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -1545,10 +1542,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>5</v>
@@ -1568,10 +1565,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>5</v>
@@ -1591,13 +1588,13 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>11</v>
@@ -1614,16 +1611,16 @@
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -1637,10 +1634,10 @@
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>5</v>
@@ -1660,16 +1657,16 @@
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -1683,10 +1680,10 @@
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>5</v>
@@ -1706,16 +1703,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
@@ -1729,10 +1726,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>5</v>
@@ -1752,16 +1749,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -1775,10 +1772,10 @@
         <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>5</v>
@@ -1798,10 +1795,10 @@
         <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>8</v>
@@ -1821,10 +1818,10 @@
         <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>8</v>
@@ -1844,10 +1841,10 @@
         <v>9</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>5</v>
@@ -1867,10 +1864,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>25</v>
@@ -1890,10 +1887,10 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>25</v>
@@ -1913,10 +1910,10 @@
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>5</v>
@@ -1936,16 +1933,16 @@
         <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -1959,16 +1956,16 @@
         <v>9</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G50" s="2">
         <v>0</v>
@@ -1982,10 +1979,10 @@
         <v>9</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>5</v>
@@ -2005,10 +2002,10 @@
         <v>9.5</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>5</v>
@@ -2028,16 +2025,16 @@
         <v>9.5</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -2051,10 +2048,10 @@
         <v>9.5</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>5</v>
@@ -2235,10 +2232,10 @@
         <v>11</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>5</v>
@@ -2258,10 +2255,10 @@
         <v>11</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -2281,10 +2278,10 @@
         <v>11</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
@@ -2304,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>5</v>
@@ -2327,16 +2324,16 @@
         <v>11</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
@@ -2350,10 +2347,10 @@
         <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>5</v>
@@ -2373,10 +2370,10 @@
         <v>11</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -2396,16 +2393,16 @@
         <v>12</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -2419,10 +2416,10 @@
         <v>12</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>5</v>
@@ -2442,10 +2439,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>5</v>
@@ -2465,16 +2462,16 @@
         <v>12</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
@@ -2488,10 +2485,10 @@
         <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>5</v>
@@ -2511,16 +2508,16 @@
         <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="G74" s="2">
         <v>0</v>
@@ -2534,10 +2531,10 @@
         <v>13</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>5</v>
@@ -2557,10 +2554,10 @@
         <v>13</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -2580,10 +2577,10 @@
         <v>13</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>5</v>
@@ -2603,10 +2600,10 @@
         <v>13</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>5</v>
@@ -2626,16 +2623,16 @@
         <v>13</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -2649,10 +2646,10 @@
         <v>13</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>5</v>
@@ -2672,10 +2669,10 @@
         <v>13</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -2695,10 +2692,10 @@
         <v>13</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -2718,10 +2715,10 @@
         <v>14</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>5</v>
@@ -2741,10 +2738,10 @@
         <v>14</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>5</v>
@@ -2764,16 +2761,16 @@
         <v>15</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -2787,10 +2784,10 @@
         <v>15</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>5</v>
@@ -2810,16 +2807,16 @@
         <v>15</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
@@ -2833,10 +2830,10 @@
         <v>15</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>5</v>
@@ -2856,10 +2853,10 @@
         <v>15</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>5</v>
@@ -2879,16 +2876,16 @@
         <v>15</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="G90" s="2">
         <v>0</v>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31DF0DB-E481-49CF-9864-90888541A0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F73359D-FC32-41C0-BDEE-FAA7958C7F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="134">
   <si>
     <t>id</t>
   </si>
@@ -430,6 +430,15 @@
   </si>
   <si>
     <t>Metropolitana</t>
+  </si>
+  <si>
+    <t>Claudia Pascual</t>
+  </si>
+  <si>
+    <t>Unidad para el Cambio</t>
+  </si>
+  <si>
+    <t>PC</t>
   </si>
 </sst>
 </file>
@@ -805,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85:C90"/>
+      <selection activeCell="A2" sqref="A2:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +901,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -915,7 +924,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -924,21 +933,21 @@
         <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -947,21 +956,21 @@
         <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -970,13 +979,13 @@
         <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -984,7 +993,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1007,7 +1016,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -1016,21 +1025,21 @@
         <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -1039,13 +1048,13 @@
         <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1053,7 +1062,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -1062,13 +1071,13 @@
         <v>105</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1076,7 +1085,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1085,16 +1094,16 @@
         <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1513,7 +1522,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="2">
         <v>6</v>
@@ -1536,7 +1545,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" s="2">
         <v>6</v>
@@ -1559,7 +1568,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" s="2">
         <v>6</v>
@@ -1582,7 +1591,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="2">
         <v>6</v>
@@ -1605,7 +1614,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2">
         <v>6</v>
@@ -1858,7 +1867,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B46" s="2">
         <v>9</v>
@@ -1867,21 +1876,21 @@
         <v>49</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B47" s="2">
         <v>9</v>
@@ -1890,21 +1899,21 @@
         <v>49</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B48" s="2">
         <v>9</v>
@@ -1913,13 +1922,13 @@
         <v>49</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -1927,7 +1936,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B49" s="2">
         <v>9</v>
@@ -1936,13 +1945,13 @@
         <v>49</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -1950,7 +1959,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B50" s="2">
         <v>9</v>
@@ -1959,21 +1968,21 @@
         <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B51" s="2">
         <v>9</v>
@@ -1982,16 +1991,16 @@
         <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2088,7 +2097,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B56" s="2">
         <v>10</v>
@@ -2097,13 +2106,13 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
@@ -2111,7 +2120,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2">
         <v>10</v>
@@ -2120,16 +2129,16 @@
         <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2180,7 +2189,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B60" s="2">
         <v>10</v>
@@ -2189,13 +2198,13 @@
         <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
@@ -2203,7 +2212,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B61" s="2">
         <v>10</v>
@@ -2212,16 +2221,16 @@
         <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2387,7 +2396,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B69" s="2">
         <v>12</v>
@@ -2396,21 +2405,21 @@
         <v>64</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="G69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B70" s="2">
         <v>12</v>
@@ -2419,13 +2428,13 @@
         <v>64</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
@@ -2433,7 +2442,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B71" s="2">
         <v>12</v>
@@ -2442,13 +2451,13 @@
         <v>64</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G71" s="2">
         <v>0</v>
@@ -2456,7 +2465,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B72" s="2">
         <v>12</v>
@@ -2465,13 +2474,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
@@ -2479,7 +2488,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73" s="2">
         <v>12</v>
@@ -2488,16 +2497,16 @@
         <v>64</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="G73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2571,7 +2580,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B77" s="2">
         <v>13</v>
@@ -2580,13 +2589,13 @@
         <v>40</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2">
         <v>0</v>
@@ -2594,7 +2603,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B78" s="2">
         <v>13</v>
@@ -2603,13 +2612,13 @@
         <v>40</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G78" s="2">
         <v>0</v>
@@ -2617,7 +2626,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B79" s="2">
         <v>13</v>
@@ -2626,13 +2635,13 @@
         <v>40</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -2801,7 +2810,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B87" s="2">
         <v>15</v>
@@ -2810,13 +2819,13 @@
         <v>130</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
@@ -2824,7 +2833,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B88" s="2">
         <v>15</v>
@@ -2833,21 +2842,21 @@
         <v>130</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G88" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B89" s="2">
         <v>15</v>
@@ -2856,13 +2865,13 @@
         <v>130</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G89" s="2">
         <v>0</v>
@@ -2870,7 +2879,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B90" s="2">
         <v>15</v>
@@ -2879,21 +2888,44 @@
         <v>130</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="G90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>76</v>
+      </c>
+      <c r="B91" s="2">
+        <v>15</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G91" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G90" xr:uid="{82A678AF-0139-44D5-82E6-EDB0C1824816}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G90">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
       <sortCondition ref="B1:B90"/>
     </sortState>
   </autoFilter>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F73359D-FC32-41C0-BDEE-FAA7958C7F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7460188-215F-4783-8273-9533533977F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$G$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$G$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>PC</t>
+  </si>
+  <si>
+    <t>Esteban Guzmán</t>
   </si>
 </sst>
 </file>
@@ -814,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A91"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,22 +2008,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
@@ -2028,7 +2031,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2">
         <v>9.5</v>
@@ -2037,13 +2040,13 @@
         <v>92</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -2051,7 +2054,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="2">
         <v>9.5</v>
@@ -2060,13 +2063,13 @@
         <v>92</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G54" s="2">
         <v>0</v>
@@ -2074,22 +2077,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G55" s="2">
         <v>0</v>
@@ -2097,7 +2100,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" s="2">
         <v>10</v>
@@ -2106,13 +2109,13 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
@@ -2120,7 +2123,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" s="2">
         <v>10</v>
@@ -2129,21 +2132,21 @@
         <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="2">
         <v>10</v>
@@ -2152,13 +2155,13 @@
         <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -2166,7 +2169,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" s="2">
         <v>10</v>
@@ -2175,7 +2178,7 @@
         <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>25</v>
@@ -2184,12 +2187,12 @@
         <v>26</v>
       </c>
       <c r="G59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" s="2">
         <v>10</v>
@@ -2198,13 +2201,13 @@
         <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
@@ -2212,7 +2215,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="2">
         <v>10</v>
@@ -2221,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>25</v>
@@ -2235,22 +2238,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B62" s="2">
+        <v>10</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="G62" s="2">
         <v>0</v>
@@ -2258,7 +2261,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="2">
         <v>11</v>
@@ -2267,21 +2270,21 @@
         <v>73</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="2">
         <v>11</v>
@@ -2290,21 +2293,21 @@
         <v>73</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" s="2">
         <v>11</v>
@@ -2313,13 +2316,13 @@
         <v>73</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G65" s="2">
         <v>0</v>
@@ -2327,7 +2330,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="2">
         <v>11</v>
@@ -2336,13 +2339,13 @@
         <v>73</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
@@ -2350,7 +2353,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67" s="2">
         <v>11</v>
@@ -2359,13 +2362,13 @@
         <v>73</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G67" s="2">
         <v>0</v>
@@ -2373,7 +2376,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B68" s="2">
         <v>11</v>
@@ -2382,44 +2385,44 @@
         <v>73</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B69" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" s="2">
         <v>12</v>
@@ -2428,13 +2431,13 @@
         <v>64</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
@@ -2442,7 +2445,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" s="2">
         <v>12</v>
@@ -2451,13 +2454,13 @@
         <v>64</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G71" s="2">
         <v>0</v>
@@ -2465,7 +2468,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B72" s="2">
         <v>12</v>
@@ -2474,13 +2477,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
@@ -2488,7 +2491,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73" s="2">
         <v>12</v>
@@ -2497,21 +2500,21 @@
         <v>64</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="G73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74" s="2">
         <v>12</v>
@@ -2520,36 +2523,36 @@
         <v>64</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B75" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
@@ -2557,7 +2560,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76" s="2">
         <v>13</v>
@@ -2566,13 +2569,13 @@
         <v>40</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G76" s="2">
         <v>0</v>
@@ -2580,7 +2583,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B77" s="2">
         <v>13</v>
@@ -2589,13 +2592,13 @@
         <v>40</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G77" s="2">
         <v>0</v>
@@ -2603,7 +2606,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B78" s="2">
         <v>13</v>
@@ -2612,13 +2615,13 @@
         <v>40</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2">
         <v>0</v>
@@ -2626,7 +2629,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" s="2">
         <v>13</v>
@@ -2635,13 +2638,13 @@
         <v>40</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B80" s="2">
         <v>13</v>
@@ -2658,21 +2661,21 @@
         <v>40</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81" s="2">
         <v>13</v>
@@ -2681,21 +2684,21 @@
         <v>40</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B82" s="2">
         <v>13</v>
@@ -2704,13 +2707,13 @@
         <v>40</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G82" s="2">
         <v>0</v>
@@ -2718,22 +2721,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B83" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G83" s="2">
         <v>0</v>
@@ -2741,7 +2744,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B84" s="2">
         <v>14</v>
@@ -2750,13 +2753,13 @@
         <v>81</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G84" s="2">
         <v>0</v>
@@ -2764,30 +2767,30 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B85" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="G85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86" s="2">
         <v>15</v>
@@ -2796,21 +2799,21 @@
         <v>130</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="G86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87" s="2">
         <v>15</v>
@@ -2819,21 +2822,21 @@
         <v>130</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" s="2">
         <v>15</v>
@@ -2842,21 +2845,21 @@
         <v>130</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89" s="2">
         <v>15</v>
@@ -2865,13 +2868,13 @@
         <v>130</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="G89" s="2">
         <v>0</v>
@@ -2879,7 +2882,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B90" s="2">
         <v>15</v>
@@ -2888,21 +2891,21 @@
         <v>130</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="G90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" s="2">
         <v>15</v>
@@ -2911,22 +2914,45 @@
         <v>130</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>76</v>
+      </c>
+      <c r="B92" s="2">
+        <v>15</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G92" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G90" xr:uid="{82A678AF-0139-44D5-82E6-EDB0C1824816}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
-      <sortCondition ref="B1:B90"/>
+  <autoFilter ref="A1:G91" xr:uid="{82A678AF-0139-44D5-82E6-EDB0C1824816}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G92">
+      <sortCondition ref="B1:B91"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBDF3CF-9693-4E54-ADFC-33AAF71D075A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA8B11C-5CD9-49AF-896A-CAFE1B9B076A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -820,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,33 +1748,33 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="H36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2">
         <v>15</v>
@@ -1786,21 +1786,21 @@
         <v>130</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2">
         <v>15</v>
@@ -1812,21 +1812,21 @@
         <v>130</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2">
         <v>15</v>
@@ -1838,21 +1838,21 @@
         <v>130</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2">
         <v>15</v>
@@ -1864,13 +1864,13 @@
         <v>130</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2">
         <v>15</v>
@@ -1890,21 +1890,21 @@
         <v>130</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="H41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2">
         <v>15</v>
@@ -1916,39 +1916,39 @@
         <v>130</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="2">
         <v>7</v>
@@ -1968,13 +1968,13 @@
         <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2">
         <v>7</v>
@@ -1994,13 +1994,13 @@
         <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2008,25 +2008,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2">
         <v>8</v>
@@ -2045,22 +2045,22 @@
       <c r="D47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>87</v>
+      <c r="E47" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="H47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2">
         <v>8</v>
@@ -2072,21 +2072,21 @@
         <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2">
         <v>8</v>
@@ -2098,13 +2098,13 @@
         <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2">
         <v>8</v>
@@ -2124,13 +2124,13 @@
         <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2">
         <v>8</v>
@@ -2150,13 +2150,13 @@
         <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2164,25 +2164,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C52" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2">
         <v>9.5</v>
@@ -2202,13 +2202,13 @@
         <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="2">
         <v>9.5</v>
@@ -2228,13 +2228,13 @@
         <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2242,25 +2242,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C55" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" s="2">
         <v>9</v>
@@ -2280,13 +2280,13 @@
         <v>49</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="2">
         <v>9</v>
@@ -2306,13 +2306,13 @@
         <v>49</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B58" s="2">
         <v>9</v>
@@ -2332,13 +2332,13 @@
         <v>49</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" s="2">
         <v>9</v>
@@ -2358,13 +2358,13 @@
         <v>49</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="2">
         <v>9</v>
@@ -2384,21 +2384,21 @@
         <v>49</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="2">
         <v>9</v>
@@ -2410,7 +2410,7 @@
         <v>49</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>25</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B62" s="2">
         <v>9</v>
@@ -2436,39 +2436,39 @@
         <v>49</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" s="2">
         <v>10</v>
@@ -2488,13 +2488,13 @@
         <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" s="2">
         <v>10</v>
@@ -2514,21 +2514,21 @@
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="2">
         <v>10</v>
@@ -2540,13 +2540,13 @@
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H66" s="2">
         <v>1</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67" s="2">
         <v>10</v>
@@ -2566,7 +2566,7 @@
         <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>25</v>
@@ -2575,12 +2575,12 @@
         <v>26</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68" s="2">
         <v>10</v>
@@ -2592,13 +2592,13 @@
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69" s="2">
         <v>10</v>
@@ -2618,7 +2618,7 @@
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>25</v>
@@ -2632,25 +2632,25 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B70" s="2">
+        <v>10</v>
+      </c>
+      <c r="C70" s="2">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C70" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="2">
         <v>11</v>
@@ -2670,21 +2670,21 @@
         <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="2">
         <v>11</v>
@@ -2696,21 +2696,21 @@
         <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73" s="2">
         <v>11</v>
@@ -2722,13 +2722,13 @@
         <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="2">
         <v>11</v>
@@ -2748,13 +2748,13 @@
         <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75" s="2">
         <v>11</v>
@@ -2774,13 +2774,13 @@
         <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76" s="2">
         <v>11</v>
@@ -2800,47 +2800,47 @@
         <v>73</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B77" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B78" s="2">
         <v>12</v>
@@ -2852,13 +2852,13 @@
         <v>64</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="2">
         <v>12</v>
@@ -2878,13 +2878,13 @@
         <v>64</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B80" s="2">
         <v>12</v>
@@ -2904,13 +2904,13 @@
         <v>64</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B81" s="2">
         <v>12</v>
@@ -2930,21 +2930,21 @@
         <v>64</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="H81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="2">
         <v>12</v>
@@ -2956,39 +2956,39 @@
         <v>64</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B83" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84" s="2">
         <v>13</v>
@@ -3008,13 +3008,13 @@
         <v>40</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B85" s="2">
         <v>13</v>
@@ -3034,13 +3034,13 @@
         <v>40</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86" s="2">
         <v>13</v>
@@ -3060,13 +3060,13 @@
         <v>40</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87" s="2">
         <v>13</v>
@@ -3086,13 +3086,13 @@
         <v>40</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B88" s="2">
         <v>13</v>
@@ -3112,21 +3112,21 @@
         <v>40</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H88" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B89" s="2">
         <v>13</v>
@@ -3138,21 +3138,21 @@
         <v>40</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B90" s="2">
         <v>13</v>
@@ -3164,13 +3164,13 @@
         <v>40</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -3178,25 +3178,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B91" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C91" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B92" s="2">
         <v>14</v>
@@ -3216,21 +3216,47 @@
         <v>81</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>57</v>
+      </c>
+      <c r="B93" s="2">
+        <v>14</v>
+      </c>
+      <c r="C93" s="2">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="F93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H93" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H92">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H93">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA8B11C-5CD9-49AF-896A-CAFE1B9B076A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4A8A44-3A3E-4DD7-8B84-F50BEFA44592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -328,9 +328,6 @@
   </si>
   <si>
     <t>O´Higgins</t>
-  </si>
-  <si>
-    <t>Juan Carlos Latorre</t>
   </si>
   <si>
     <t>Fernando Verdugo</t>
@@ -820,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,25 +838,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -873,7 +870,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -899,7 +896,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -916,7 +913,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -925,10 +922,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>70</v>
@@ -942,7 +939,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -951,10 +948,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>5</v>
@@ -968,7 +965,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -977,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -994,7 +991,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1003,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>70</v>
@@ -1020,7 +1017,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1029,10 +1026,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
@@ -1046,7 +1043,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -1055,10 +1052,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -1072,7 +1069,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -1081,10 +1078,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
@@ -1098,7 +1095,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -1107,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
@@ -1124,7 +1121,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1133,16 +1130,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -1618,7 +1615,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2">
         <v>6</v>
@@ -1627,16 +1624,16 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -1644,7 +1641,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2">
         <v>6</v>
@@ -1653,10 +1650,10 @@
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>5</v>
@@ -1670,7 +1667,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2">
         <v>6</v>
@@ -1679,10 +1676,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>5</v>
@@ -1696,7 +1693,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2">
         <v>6</v>
@@ -1705,10 +1702,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>70</v>
@@ -1722,7 +1719,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2">
         <v>6</v>
@@ -1731,16 +1728,16 @@
         <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -1748,7 +1745,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="2">
         <v>6</v>
@@ -1757,10 +1754,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>5</v>
@@ -1774,7 +1771,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2">
         <v>15</v>
@@ -1783,10 +1780,10 @@
         <v>5.5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>70</v>
@@ -1800,7 +1797,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2">
         <v>15</v>
@@ -1809,10 +1806,10 @@
         <v>5.5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>5</v>
@@ -1826,7 +1823,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2">
         <v>15</v>
@@ -1835,10 +1832,10 @@
         <v>5.5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>5</v>
@@ -1852,7 +1849,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2">
         <v>15</v>
@@ -1861,10 +1858,10 @@
         <v>5.5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>5</v>
@@ -1878,7 +1875,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2">
         <v>15</v>
@@ -1887,10 +1884,10 @@
         <v>5.5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>70</v>
@@ -1904,7 +1901,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2">
         <v>15</v>
@@ -1913,16 +1910,16 @@
         <v>5.5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
@@ -1930,7 +1927,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2">
         <v>15</v>
@@ -1939,16 +1936,16 @@
         <v>5.5</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -1974,7 +1971,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2000,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2008,25 +2005,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2">
         <v>7</v>
       </c>
-      <c r="C46" s="2">
-        <v>6</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2034,7 +2031,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2">
         <v>8</v>
@@ -2045,22 +2042,22 @@
       <c r="D47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>85</v>
+      <c r="E47" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2">
         <v>8</v>
@@ -2072,21 +2069,21 @@
         <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2">
         <v>8</v>
@@ -2098,13 +2095,13 @@
         <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2112,7 +2109,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2">
         <v>8</v>
@@ -2124,13 +2121,13 @@
         <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2138,7 +2135,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="2">
         <v>8</v>
@@ -2150,13 +2147,13 @@
         <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2164,25 +2161,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="C52" s="2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2190,7 +2187,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="2">
         <v>9.5</v>
@@ -2202,13 +2199,13 @@
         <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2216,7 +2213,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="2">
         <v>9.5</v>
@@ -2228,13 +2225,13 @@
         <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2242,25 +2239,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B55" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2268,7 +2265,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56" s="2">
         <v>9</v>
@@ -2280,13 +2277,13 @@
         <v>49</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2294,7 +2291,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57" s="2">
         <v>9</v>
@@ -2306,13 +2303,13 @@
         <v>49</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2320,7 +2317,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58" s="2">
         <v>9</v>
@@ -2332,13 +2329,13 @@
         <v>49</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2346,7 +2343,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59" s="2">
         <v>9</v>
@@ -2358,13 +2355,13 @@
         <v>49</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2372,7 +2369,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60" s="2">
         <v>9</v>
@@ -2384,21 +2381,21 @@
         <v>49</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B61" s="2">
         <v>9</v>
@@ -2410,7 +2407,7 @@
         <v>49</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>25</v>
@@ -2424,7 +2421,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2">
         <v>9</v>
@@ -2436,39 +2433,39 @@
         <v>49</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="H62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B63" s="2">
+        <v>10</v>
+      </c>
+      <c r="C63" s="2">
         <v>9</v>
       </c>
-      <c r="C63" s="2">
-        <v>8</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -2476,7 +2473,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2">
         <v>10</v>
@@ -2488,13 +2485,13 @@
         <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -2502,7 +2499,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2">
         <v>10</v>
@@ -2514,21 +2511,21 @@
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" s="2">
         <v>10</v>
@@ -2540,13 +2537,13 @@
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H66" s="2">
         <v>1</v>
@@ -2554,7 +2551,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67" s="2">
         <v>10</v>
@@ -2566,7 +2563,7 @@
         <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>25</v>
@@ -2575,12 +2572,12 @@
         <v>26</v>
       </c>
       <c r="H67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B68" s="2">
         <v>10</v>
@@ -2592,13 +2589,13 @@
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -2606,7 +2603,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B69" s="2">
         <v>10</v>
@@ -2618,7 +2615,7 @@
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>25</v>
@@ -2632,25 +2629,25 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B70" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C70" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -2658,7 +2655,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B71" s="2">
         <v>11</v>
@@ -2670,21 +2667,21 @@
         <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B72" s="2">
         <v>11</v>
@@ -2696,21 +2693,21 @@
         <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B73" s="2">
         <v>11</v>
@@ -2722,13 +2719,13 @@
         <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -2736,7 +2733,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B74" s="2">
         <v>11</v>
@@ -2748,13 +2745,13 @@
         <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -2762,7 +2759,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B75" s="2">
         <v>11</v>
@@ -2774,13 +2771,13 @@
         <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -2788,7 +2785,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B76" s="2">
         <v>11</v>
@@ -2800,47 +2797,47 @@
         <v>73</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B77" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B78" s="2">
         <v>12</v>
@@ -2852,13 +2849,13 @@
         <v>64</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -2866,7 +2863,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B79" s="2">
         <v>12</v>
@@ -2878,13 +2875,13 @@
         <v>64</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -2892,7 +2889,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B80" s="2">
         <v>12</v>
@@ -2904,13 +2901,13 @@
         <v>64</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -2918,7 +2915,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B81" s="2">
         <v>12</v>
@@ -2930,21 +2927,21 @@
         <v>64</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="H81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B82" s="2">
         <v>12</v>
@@ -2956,39 +2953,39 @@
         <v>64</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B83" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C83" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -2996,7 +2993,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B84" s="2">
         <v>13</v>
@@ -3008,13 +3005,13 @@
         <v>40</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3022,7 +3019,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B85" s="2">
         <v>13</v>
@@ -3034,13 +3031,13 @@
         <v>40</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -3048,7 +3045,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B86" s="2">
         <v>13</v>
@@ -3060,13 +3057,13 @@
         <v>40</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -3074,7 +3071,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B87" s="2">
         <v>13</v>
@@ -3086,13 +3083,13 @@
         <v>40</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -3100,7 +3097,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B88" s="2">
         <v>13</v>
@@ -3112,21 +3109,21 @@
         <v>40</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H88" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B89" s="2">
         <v>13</v>
@@ -3138,21 +3135,21 @@
         <v>40</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B90" s="2">
         <v>13</v>
@@ -3164,13 +3161,13 @@
         <v>40</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -3178,25 +3175,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B91" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C91" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -3204,7 +3201,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B92" s="2">
         <v>14</v>
@@ -3216,47 +3213,21 @@
         <v>81</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H92" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>57</v>
-      </c>
-      <c r="B93" s="2">
-        <v>14</v>
-      </c>
-      <c r="C93" s="2">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H93">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H92">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4A8A44-3A3E-4DD7-8B84-F50BEFA44592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A02A85F-3452-48E2-9DD2-B8DC90D8600F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>region2</t>
+  </si>
+  <si>
+    <t>Gonzalo Arenas</t>
   </si>
 </sst>
 </file>
@@ -817,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A92"/>
+      <selection activeCell="A89" sqref="A89:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,25 +2632,25 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -2655,7 +2658,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="2">
         <v>11</v>
@@ -2667,21 +2670,21 @@
         <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="2">
         <v>11</v>
@@ -2693,21 +2696,21 @@
         <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73" s="2">
         <v>11</v>
@@ -2719,13 +2722,13 @@
         <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -2733,7 +2736,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="2">
         <v>11</v>
@@ -2745,13 +2748,13 @@
         <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -2759,7 +2762,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75" s="2">
         <v>11</v>
@@ -2771,13 +2774,13 @@
         <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -2785,7 +2788,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76" s="2">
         <v>11</v>
@@ -2797,47 +2800,47 @@
         <v>73</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B77" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B78" s="2">
         <v>12</v>
@@ -2849,13 +2852,13 @@
         <v>64</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -2863,7 +2866,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="2">
         <v>12</v>
@@ -2875,13 +2878,13 @@
         <v>64</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -2889,7 +2892,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B80" s="2">
         <v>12</v>
@@ -2901,13 +2904,13 @@
         <v>64</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -2915,7 +2918,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B81" s="2">
         <v>12</v>
@@ -2927,21 +2930,21 @@
         <v>64</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="H81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="2">
         <v>12</v>
@@ -2953,39 +2956,39 @@
         <v>64</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B83" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84" s="2">
         <v>13</v>
@@ -3005,13 +3008,13 @@
         <v>40</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3019,7 +3022,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B85" s="2">
         <v>13</v>
@@ -3031,13 +3034,13 @@
         <v>40</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -3045,7 +3048,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86" s="2">
         <v>13</v>
@@ -3057,13 +3060,13 @@
         <v>40</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -3071,7 +3074,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87" s="2">
         <v>13</v>
@@ -3083,13 +3086,13 @@
         <v>40</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -3097,7 +3100,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B88" s="2">
         <v>13</v>
@@ -3109,21 +3112,21 @@
         <v>40</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H88" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B89" s="2">
         <v>13</v>
@@ -3135,21 +3138,21 @@
         <v>40</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B90" s="2">
         <v>13</v>
@@ -3161,13 +3164,13 @@
         <v>40</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -3175,25 +3178,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B91" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C91" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -3201,7 +3204,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B92" s="2">
         <v>14</v>
@@ -3213,21 +3216,47 @@
         <v>81</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>57</v>
+      </c>
+      <c r="B93" s="2">
+        <v>14</v>
+      </c>
+      <c r="C93" s="2">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="F93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H93" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H92">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H93">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A02A85F-3452-48E2-9DD2-B8DC90D8600F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9889FB2B-986B-4E3E-9B03-A45C000D196B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -354,9 +354,6 @@
     <t>Tarapacá</t>
   </si>
   <si>
-    <t>Juan Carlos Carvallo</t>
-  </si>
-  <si>
     <t>Norma Cordova</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>Gonzalo Arenas</t>
+  </si>
+  <si>
+    <t>Hernán Álvarez</t>
   </si>
 </sst>
 </file>
@@ -823,7 +823,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:A93"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,25 +841,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -899,7 +899,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -931,13 +931,13 @@
         <v>105</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -957,13 +957,13 @@
         <v>106</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -983,10 +983,10 @@
         <v>107</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>108</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1061,10 +1061,10 @@
         <v>110</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1110,47 +1110,47 @@
         <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -1162,13 +1162,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -1188,13 +1188,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -1214,10 +1214,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1240,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>5</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1266,13 +1266,13 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -1292,47 +1292,47 @@
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -1344,10 +1344,10 @@
         <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -1370,21 +1370,21 @@
         <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -1396,13 +1396,13 @@
         <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -1422,21 +1422,21 @@
         <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
@@ -1448,47 +1448,47 @@
         <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
         <v>4</v>
       </c>
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2">
         <v>5</v>
@@ -1500,13 +1500,13 @@
         <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2">
         <v>5</v>
@@ -1526,10 +1526,10 @@
         <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2">
         <v>5</v>
@@ -1552,21 +1552,21 @@
         <v>58</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2">
         <v>5</v>
@@ -1578,42 +1578,42 @@
         <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1627,19 +1627,19 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>116</v>
@@ -1662,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>11</v>
@@ -1705,16 +1705,16 @@
         <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -1748,33 +1748,33 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2">
         <v>15</v>
@@ -1783,24 +1783,24 @@
         <v>5.5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="H37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2">
         <v>15</v>
@@ -1809,24 +1809,24 @@
         <v>5.5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2">
         <v>15</v>
@@ -1835,24 +1835,24 @@
         <v>5.5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2">
         <v>15</v>
@@ -1861,16 +1861,16 @@
         <v>5.5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2">
         <v>15</v>
@@ -1887,24 +1887,24 @@
         <v>5.5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2">
         <v>15</v>
@@ -1913,42 +1913,42 @@
         <v>5.5</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C43" s="2">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2">
         <v>7</v>
@@ -1968,13 +1968,13 @@
         <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -1982,25 +1982,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2">
         <v>7</v>
       </c>
-      <c r="C45" s="2">
-        <v>6</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2">
         <v>8</v>
@@ -2019,22 +2019,22 @@
       <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>85</v>
+      <c r="E46" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2">
         <v>8</v>
@@ -2046,21 +2046,21 @@
         <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2">
         <v>8</v>
@@ -2072,13 +2072,13 @@
         <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2">
         <v>8</v>
@@ -2098,13 +2098,13 @@
         <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2">
         <v>8</v>
@@ -2124,13 +2124,13 @@
         <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2138,25 +2138,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="C51" s="2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2">
         <v>9.5</v>
@@ -2176,13 +2176,13 @@
         <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2">
         <v>9.5</v>
@@ -2202,13 +2202,13 @@
         <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2">
         <v>9.5</v>
@@ -2228,13 +2228,13 @@
         <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2">
         <v>9</v>
@@ -2436,13 +2436,13 @@
         <v>49</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>8</v>
@@ -2982,7 +2982,7 @@
         <v>64</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>70</v>
@@ -3255,9 +3255,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+  <autoFilter ref="A1:H93" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H93">
-      <sortCondition ref="C1"/>
+      <sortCondition ref="C1:C93"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9889FB2B-986B-4E3E-9B03-A45C000D196B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60809E92-54C7-48A3-B7CA-8A99E0D70510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>Hernán Álvarez</t>
+  </si>
+  <si>
+    <t>Luciano Rivas Stepke</t>
   </si>
 </sst>
 </file>
@@ -820,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,25 +2661,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -2684,7 +2687,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="2">
         <v>11</v>
@@ -2696,21 +2699,21 @@
         <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73" s="2">
         <v>11</v>
@@ -2722,21 +2725,21 @@
         <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="2">
         <v>11</v>
@@ -2748,13 +2751,13 @@
         <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -2762,7 +2765,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="2">
         <v>11</v>
@@ -2774,13 +2777,13 @@
         <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -2788,7 +2791,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76" s="2">
         <v>11</v>
@@ -2800,13 +2803,13 @@
         <v>73</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -2814,7 +2817,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77" s="2">
         <v>11</v>
@@ -2826,47 +2829,47 @@
         <v>73</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B78" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79" s="2">
         <v>12</v>
@@ -2878,13 +2881,13 @@
         <v>64</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -2892,7 +2895,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="2">
         <v>12</v>
@@ -2904,13 +2907,13 @@
         <v>64</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -2918,7 +2921,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="2">
         <v>12</v>
@@ -2930,13 +2933,13 @@
         <v>64</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B82" s="2">
         <v>12</v>
@@ -2956,21 +2959,21 @@
         <v>64</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="H82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" s="2">
         <v>12</v>
@@ -2982,39 +2985,39 @@
         <v>64</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B84" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3022,7 +3025,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85" s="2">
         <v>13</v>
@@ -3034,13 +3037,13 @@
         <v>40</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -3048,7 +3051,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B86" s="2">
         <v>13</v>
@@ -3060,13 +3063,13 @@
         <v>40</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -3074,7 +3077,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87" s="2">
         <v>13</v>
@@ -3086,13 +3089,13 @@
         <v>40</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -3100,7 +3103,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88" s="2">
         <v>13</v>
@@ -3112,13 +3115,13 @@
         <v>40</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
@@ -3126,7 +3129,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B89" s="2">
         <v>13</v>
@@ -3138,21 +3141,21 @@
         <v>40</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90" s="2">
         <v>13</v>
@@ -3164,21 +3167,21 @@
         <v>40</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B91" s="2">
         <v>13</v>
@@ -3190,13 +3193,13 @@
         <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -3204,25 +3207,25 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B92" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -3230,7 +3233,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B93" s="2">
         <v>14</v>
@@ -3242,22 +3245,48 @@
         <v>81</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>57</v>
+      </c>
+      <c r="B94" s="2">
+        <v>14</v>
+      </c>
+      <c r="C94" s="2">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" s="2">
+      <c r="F94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H93" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H93">
-      <sortCondition ref="C1:C93"/>
+  <autoFilter ref="A1:H94" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H94">
+      <sortCondition ref="C1:C94"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60809E92-54C7-48A3-B7CA-8A99E0D70510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E14C77-BF5A-4F62-835B-1EDB51DAA6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -823,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" s="2">
         <v>6</v>
@@ -1659,10 +1659,10 @@
         <v>112</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>11</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" s="2">
         <v>6</v>
@@ -1685,13 +1685,13 @@
         <v>112</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="2">
         <v>6</v>
@@ -1711,13 +1711,13 @@
         <v>112</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -1725,33 +1725,33 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2">
         <v>15</v>
@@ -1763,21 +1763,21 @@
         <v>128</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="H36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2">
         <v>15</v>
@@ -1789,21 +1789,21 @@
         <v>128</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2">
         <v>15</v>
@@ -1815,21 +1815,21 @@
         <v>128</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2">
         <v>15</v>
@@ -1841,13 +1841,13 @@
         <v>128</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2">
         <v>15</v>
@@ -1867,21 +1867,21 @@
         <v>128</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2">
         <v>15</v>
@@ -1893,39 +1893,39 @@
         <v>128</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="H41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B42" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" s="2">
         <v>7</v>
@@ -1945,13 +1945,13 @@
         <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -1959,25 +1959,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2">
         <v>7</v>
       </c>
-      <c r="C44" s="2">
-        <v>6</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2">
         <v>8</v>
@@ -1996,22 +1996,22 @@
       <c r="D45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>85</v>
+      <c r="E45" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2">
         <v>8</v>
@@ -2023,21 +2023,21 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2">
         <v>8</v>
@@ -2049,13 +2049,13 @@
         <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2">
         <v>8</v>
@@ -2075,13 +2075,13 @@
         <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2">
         <v>8</v>
@@ -2101,13 +2101,13 @@
         <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2115,25 +2115,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="C50" s="2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2">
         <v>9.5</v>
@@ -2153,13 +2153,13 @@
         <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2">
         <v>9.5</v>
@@ -2179,13 +2179,13 @@
         <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2">
         <v>9.5</v>
@@ -2205,13 +2205,13 @@
         <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2219,25 +2219,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B54" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55" s="2">
         <v>9</v>
@@ -2257,13 +2257,13 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56" s="2">
         <v>9</v>
@@ -2283,13 +2283,13 @@
         <v>49</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57" s="2">
         <v>9</v>
@@ -2309,13 +2309,13 @@
         <v>49</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58" s="2">
         <v>9</v>
@@ -2335,13 +2335,13 @@
         <v>49</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59" s="2">
         <v>9</v>
@@ -2361,21 +2361,21 @@
         <v>49</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60" s="2">
         <v>9</v>
@@ -2387,7 +2387,7 @@
         <v>49</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>25</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2">
         <v>9</v>
@@ -2413,39 +2413,39 @@
         <v>49</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="H61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B62" s="2">
+        <v>10</v>
+      </c>
+      <c r="C62" s="2">
         <v>9</v>
       </c>
-      <c r="C62" s="2">
-        <v>8</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63" s="2">
         <v>10</v>
@@ -2465,13 +2465,13 @@
         <v>18</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64" s="2">
         <v>10</v>
@@ -2491,21 +2491,21 @@
         <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65" s="2">
         <v>10</v>
@@ -2517,13 +2517,13 @@
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H65" s="2">
         <v>1</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B66" s="2">
         <v>10</v>
@@ -2543,7 +2543,7 @@
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>25</v>
@@ -2552,12 +2552,12 @@
         <v>26</v>
       </c>
       <c r="H66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B67" s="2">
         <v>10</v>
@@ -2569,13 +2569,13 @@
         <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B68" s="2">
         <v>10</v>
@@ -2595,7 +2595,7 @@
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>25</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2">
         <v>10</v>
@@ -2621,13 +2621,13 @@
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2">
         <v>10</v>
@@ -2647,13 +2647,13 @@
         <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -2661,25 +2661,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B71" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B72" s="2">
         <v>11</v>
@@ -2699,21 +2699,21 @@
         <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B73" s="2">
         <v>11</v>
@@ -2725,21 +2725,21 @@
         <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B74" s="2">
         <v>11</v>
@@ -2751,13 +2751,13 @@
         <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B75" s="2">
         <v>11</v>
@@ -2777,13 +2777,13 @@
         <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B76" s="2">
         <v>11</v>
@@ -2803,13 +2803,13 @@
         <v>73</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B77" s="2">
         <v>11</v>
@@ -2829,47 +2829,47 @@
         <v>73</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B78" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" s="2">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B79" s="2">
         <v>12</v>
@@ -2881,13 +2881,13 @@
         <v>64</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B80" s="2">
         <v>12</v>
@@ -2907,13 +2907,13 @@
         <v>64</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B81" s="2">
         <v>12</v>
@@ -2933,13 +2933,13 @@
         <v>64</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B82" s="2">
         <v>12</v>
@@ -2959,21 +2959,21 @@
         <v>64</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="H82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B83" s="2">
         <v>12</v>
@@ -2985,39 +2985,39 @@
         <v>64</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B84" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C84" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B85" s="2">
         <v>13</v>
@@ -3037,13 +3037,13 @@
         <v>40</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B86" s="2">
         <v>13</v>
@@ -3063,13 +3063,13 @@
         <v>40</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B87" s="2">
         <v>13</v>
@@ -3089,13 +3089,13 @@
         <v>40</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B88" s="2">
         <v>13</v>
@@ -3115,13 +3115,13 @@
         <v>40</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B89" s="2">
         <v>13</v>
@@ -3141,21 +3141,21 @@
         <v>40</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B90" s="2">
         <v>13</v>
@@ -3167,21 +3167,21 @@
         <v>40</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B91" s="2">
         <v>13</v>
@@ -3193,13 +3193,13 @@
         <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -3207,25 +3207,25 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B92" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C92" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B93" s="2">
         <v>14</v>
@@ -3245,48 +3245,22 @@
         <v>81</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>57</v>
-      </c>
-      <c r="B94" s="2">
-        <v>14</v>
-      </c>
-      <c r="C94" s="2">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H94" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H94">
-      <sortCondition ref="C1:C94"/>
+  <autoFilter ref="A1:H93" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H93">
+      <sortCondition ref="C1:C93"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E14C77-BF5A-4F62-835B-1EDB51DAA6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B776DB-6246-4F97-9206-016F081C5740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>Luciano Rivas Stepke</t>
+  </si>
+  <si>
+    <t>Pablo Maltés</t>
+  </si>
+  <si>
+    <t>Chile Digno</t>
+  </si>
+  <si>
+    <t>PH</t>
   </si>
 </sst>
 </file>
@@ -823,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,25 +1916,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -1933,7 +1942,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2">
         <v>7</v>
@@ -1945,13 +1954,13 @@
         <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -1959,25 +1968,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -1985,7 +1994,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2">
         <v>8</v>
@@ -1996,22 +2005,22 @@
       <c r="D45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
+      <c r="E45" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="H45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2">
         <v>8</v>
@@ -2023,21 +2032,21 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2">
         <v>8</v>
@@ -2049,13 +2058,13 @@
         <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2063,7 +2072,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2">
         <v>8</v>
@@ -2075,13 +2084,13 @@
         <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2089,7 +2098,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2">
         <v>8</v>
@@ -2101,13 +2110,13 @@
         <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2115,25 +2124,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C50" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2141,7 +2150,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2">
         <v>9.5</v>
@@ -2153,13 +2162,13 @@
         <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2167,7 +2176,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2">
         <v>9.5</v>
@@ -2179,13 +2188,13 @@
         <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2193,7 +2202,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2">
         <v>9.5</v>
@@ -2205,13 +2214,13 @@
         <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2219,25 +2228,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C54" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2245,7 +2254,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" s="2">
         <v>9</v>
@@ -2257,13 +2266,13 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2271,7 +2280,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="2">
         <v>9</v>
@@ -2283,13 +2292,13 @@
         <v>49</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2297,7 +2306,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="2">
         <v>9</v>
@@ -2309,13 +2318,13 @@
         <v>49</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2323,7 +2332,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="2">
         <v>9</v>
@@ -2335,13 +2344,13 @@
         <v>49</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2349,7 +2358,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="2">
         <v>9</v>
@@ -2361,21 +2370,21 @@
         <v>49</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" s="2">
         <v>9</v>
@@ -2387,7 +2396,7 @@
         <v>49</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>25</v>
@@ -2401,7 +2410,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B61" s="2">
         <v>9</v>
@@ -2413,39 +2422,39 @@
         <v>49</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -2453,7 +2462,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="2">
         <v>10</v>
@@ -2465,13 +2474,13 @@
         <v>18</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -2479,7 +2488,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2">
         <v>10</v>
@@ -2491,21 +2500,21 @@
         <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2">
         <v>10</v>
@@ -2517,13 +2526,13 @@
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H65" s="2">
         <v>1</v>
@@ -2531,7 +2540,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" s="2">
         <v>10</v>
@@ -2543,7 +2552,7 @@
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>25</v>
@@ -2552,12 +2561,12 @@
         <v>26</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67" s="2">
         <v>10</v>
@@ -2569,13 +2578,13 @@
         <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -2583,7 +2592,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68" s="2">
         <v>10</v>
@@ -2595,7 +2604,7 @@
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>25</v>
@@ -2609,7 +2618,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B69" s="2">
         <v>10</v>
@@ -2621,13 +2630,13 @@
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -2635,7 +2644,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2">
         <v>10</v>
@@ -2647,13 +2656,13 @@
         <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -2661,25 +2670,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2">
+        <v>10</v>
+      </c>
+      <c r="C71" s="2">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C71" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -2687,7 +2696,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="2">
         <v>11</v>
@@ -2699,21 +2708,21 @@
         <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73" s="2">
         <v>11</v>
@@ -2725,21 +2734,21 @@
         <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="2">
         <v>11</v>
@@ -2751,13 +2760,13 @@
         <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -2765,7 +2774,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="2">
         <v>11</v>
@@ -2777,13 +2786,13 @@
         <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -2791,7 +2800,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76" s="2">
         <v>11</v>
@@ -2803,13 +2812,13 @@
         <v>73</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -2817,7 +2826,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77" s="2">
         <v>11</v>
@@ -2829,47 +2838,47 @@
         <v>73</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B78" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79" s="2">
         <v>12</v>
@@ -2881,13 +2890,13 @@
         <v>64</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -2895,7 +2904,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="2">
         <v>12</v>
@@ -2907,13 +2916,13 @@
         <v>64</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -2921,7 +2930,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="2">
         <v>12</v>
@@ -2933,13 +2942,13 @@
         <v>64</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -2947,7 +2956,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B82" s="2">
         <v>12</v>
@@ -2959,21 +2968,21 @@
         <v>64</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="H82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" s="2">
         <v>12</v>
@@ -2985,39 +2994,39 @@
         <v>64</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B84" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3025,7 +3034,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85" s="2">
         <v>13</v>
@@ -3037,13 +3046,13 @@
         <v>40</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -3051,7 +3060,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B86" s="2">
         <v>13</v>
@@ -3063,13 +3072,13 @@
         <v>40</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -3077,7 +3086,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87" s="2">
         <v>13</v>
@@ -3089,13 +3098,13 @@
         <v>40</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -3103,7 +3112,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88" s="2">
         <v>13</v>
@@ -3115,13 +3124,13 @@
         <v>40</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
@@ -3129,7 +3138,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B89" s="2">
         <v>13</v>
@@ -3141,21 +3150,21 @@
         <v>40</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90" s="2">
         <v>13</v>
@@ -3167,21 +3176,21 @@
         <v>40</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B91" s="2">
         <v>13</v>
@@ -3193,13 +3202,13 @@
         <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -3207,25 +3216,25 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B92" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -3233,7 +3242,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B93" s="2">
         <v>14</v>
@@ -3245,22 +3254,48 @@
         <v>81</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>57</v>
+      </c>
+      <c r="B94" s="2">
+        <v>14</v>
+      </c>
+      <c r="C94" s="2">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H94" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H93" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H93">
-      <sortCondition ref="C1:C93"/>
+  <autoFilter ref="A1:H94" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H94">
+      <sortCondition ref="C1:C94"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D03C30E-DDAF-4DB0-B9E5-89DA239D55AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E40B971-E1C6-4289-B193-18FC53AC23CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>PH</t>
+  </si>
+  <si>
+    <t>Sebastián Ugarte</t>
   </si>
 </sst>
 </file>
@@ -834,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,22 +1141,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -1164,7 +1167,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
@@ -1176,13 +1179,13 @@
         <v>112</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1190,33 +1193,33 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>15</v>
@@ -1228,21 +1231,21 @@
         <v>128</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
@@ -1254,13 +1257,13 @@
         <v>128</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -1280,13 +1283,13 @@
         <v>128</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1294,25 +1297,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1320,51 +1323,51 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1372,51 +1375,51 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1424,33 +1427,33 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C23" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>9</v>
@@ -1462,73 +1465,73 @@
         <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>10</v>
@@ -1540,13 +1543,13 @@
         <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1554,7 +1557,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2">
         <v>10</v>
@@ -1566,13 +1569,13 @@
         <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1580,7 +1583,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>10</v>
@@ -1592,10 +1595,10 @@
         <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
@@ -1606,25 +1609,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1632,51 +1635,51 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1684,77 +1687,77 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -1762,34 +1765,86 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2">
+        <v>11</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2">
         <v>14</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C38" s="2">
         <v>12</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="F38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H36" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H36">
-      <sortCondition ref="C1:C36"/>
+  <autoFilter ref="A1:H38" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H38">
+      <sortCondition ref="C1:C38"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E40B971-E1C6-4289-B193-18FC53AC23CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB4EF61-1966-4B55-8437-CF2E5D85D981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="todos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="142">
   <si>
     <t>id</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>Sebastián Ugarte</t>
+  </si>
+  <si>
+    <t>descartado</t>
   </si>
 </sst>
 </file>
@@ -837,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1144,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
         <v>5</v>
@@ -1283,13 +1286,13 @@
         <v>128</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1297,7 +1300,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
@@ -1309,13 +1312,13 @@
         <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1323,25 +1326,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1352,25 +1355,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
         <v>7</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1387,16 +1390,16 @@
         <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1404,22 +1407,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="C22" s="2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1430,22 +1433,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1465,16 +1468,16 @@
         <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1491,7 +1494,7 @@
         <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>25</v>
@@ -1508,25 +1511,25 @@
         <v>23</v>
       </c>
       <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
         <v>9</v>
       </c>
-      <c r="C26" s="2">
-        <v>8</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1543,13 +1546,13 @@
         <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1569,13 +1572,13 @@
         <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1595,13 +1598,13 @@
         <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1621,13 +1624,13 @@
         <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1638,22 +1641,22 @@
         <v>28</v>
       </c>
       <c r="B31" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1673,16 +1676,16 @@
         <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1690,25 +1693,25 @@
         <v>30</v>
       </c>
       <c r="B33" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1725,13 +1728,13 @@
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -1742,25 +1745,25 @@
         <v>32</v>
       </c>
       <c r="B35" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1777,16 +1780,16 @@
         <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1794,57 +1797,31 @@
         <v>34</v>
       </c>
       <c r="B37" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2">
-        <v>14</v>
-      </c>
-      <c r="C38" s="2">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H38" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H38">
-      <sortCondition ref="C1:C38"/>
+  <autoFilter ref="A1:H37" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
+      <sortCondition ref="C1:C37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1854,15 +1831,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21764D14-6BFF-44A1-9B69-9FB3FFCCE5D4}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1884,11 +1864,12 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -1910,11 +1891,12 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>16</v>
       </c>
@@ -1936,11 +1918,12 @@
       <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>76</v>
       </c>
@@ -1962,11 +1945,12 @@
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>77</v>
       </c>
@@ -1988,11 +1972,12 @@
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>78</v>
       </c>
@@ -2014,11 +1999,12 @@
       <c r="G6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>79</v>
       </c>
@@ -2040,11 +2026,12 @@
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>80</v>
       </c>
@@ -2066,11 +2053,12 @@
       <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>81</v>
       </c>
@@ -2092,11 +2080,12 @@
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>82</v>
       </c>
@@ -2118,11 +2107,12 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>83</v>
       </c>
@@ -2144,11 +2134,12 @@
       <c r="G11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2170,11 +2161,12 @@
       <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -2196,11 +2188,12 @@
       <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -2222,11 +2215,12 @@
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -2248,11 +2242,12 @@
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -2274,11 +2269,12 @@
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -2300,11 +2296,12 @@
       <c r="G17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>7</v>
       </c>
@@ -2326,11 +2323,12 @@
       <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2352,11 +2350,12 @@
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2378,11 +2377,12 @@
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2404,11 +2404,12 @@
       <c r="G21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2430,11 +2431,12 @@
       <c r="G22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2456,11 +2458,12 @@
       <c r="G23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2482,11 +2485,12 @@
       <c r="G24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>38</v>
       </c>
@@ -2508,11 +2512,12 @@
       <c r="G25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>39</v>
       </c>
@@ -2534,11 +2539,12 @@
       <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>40</v>
       </c>
@@ -2560,11 +2566,12 @@
       <c r="G27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>41</v>
       </c>
@@ -2586,11 +2593,12 @@
       <c r="G28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42</v>
       </c>
@@ -2612,11 +2620,12 @@
       <c r="G29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>84</v>
       </c>
@@ -2638,11 +2647,12 @@
       <c r="G30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>85</v>
       </c>
@@ -2664,11 +2674,12 @@
       <c r="G31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>87</v>
       </c>
@@ -2690,11 +2701,12 @@
       <c r="G32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>88</v>
       </c>
@@ -2716,11 +2728,12 @@
       <c r="G33" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>89</v>
       </c>
@@ -2742,11 +2755,12 @@
       <c r="G34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>69</v>
       </c>
@@ -2768,11 +2782,12 @@
       <c r="G35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>70</v>
       </c>
@@ -2794,11 +2809,12 @@
       <c r="G36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>71</v>
       </c>
@@ -2820,11 +2836,12 @@
       <c r="G37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="2"/>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>72</v>
       </c>
@@ -2846,11 +2863,12 @@
       <c r="G38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>73</v>
       </c>
@@ -2872,11 +2890,12 @@
       <c r="G39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>74</v>
       </c>
@@ -2898,11 +2917,12 @@
       <c r="G40" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>75</v>
       </c>
@@ -2924,11 +2944,14 @@
       <c r="G41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>94</v>
       </c>
@@ -2950,11 +2973,12 @@
       <c r="G42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>67</v>
       </c>
@@ -2976,11 +3000,12 @@
       <c r="G43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>68</v>
       </c>
@@ -3002,11 +3027,12 @@
       <c r="G44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>58</v>
       </c>
@@ -3028,11 +3054,12 @@
       <c r="G45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>59</v>
       </c>
@@ -3054,11 +3081,12 @@
       <c r="G46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>60</v>
       </c>
@@ -3080,11 +3108,12 @@
       <c r="G47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>61</v>
       </c>
@@ -3106,11 +3135,12 @@
       <c r="G48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="2"/>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>62</v>
       </c>
@@ -3132,11 +3162,12 @@
       <c r="G49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>63</v>
       </c>
@@ -3158,11 +3189,12 @@
       <c r="G50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>64</v>
       </c>
@@ -3184,11 +3216,12 @@
       <c r="G51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>65</v>
       </c>
@@ -3210,11 +3243,12 @@
       <c r="G52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>66</v>
       </c>
@@ -3236,11 +3270,12 @@
       <c r="G53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="2"/>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>91</v>
       </c>
@@ -3262,11 +3297,12 @@
       <c r="G54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="2"/>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>31</v>
       </c>
@@ -3288,11 +3324,12 @@
       <c r="G55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="2"/>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>32</v>
       </c>
@@ -3314,11 +3351,12 @@
       <c r="G56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="2"/>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>33</v>
       </c>
@@ -3340,11 +3378,12 @@
       <c r="G57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="2"/>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>34</v>
       </c>
@@ -3366,11 +3405,12 @@
       <c r="G58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="2"/>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>35</v>
       </c>
@@ -3392,11 +3432,12 @@
       <c r="G59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="2"/>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>36</v>
       </c>
@@ -3418,11 +3459,12 @@
       <c r="G60" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="2"/>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>37</v>
       </c>
@@ -3444,11 +3486,12 @@
       <c r="G61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="2"/>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>90</v>
       </c>
@@ -3470,11 +3513,12 @@
       <c r="G62" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="2"/>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -3496,11 +3540,12 @@
       <c r="G63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="2"/>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>9</v>
       </c>
@@ -3522,11 +3567,12 @@
       <c r="G64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="2"/>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>10</v>
       </c>
@@ -3548,11 +3594,12 @@
       <c r="G65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="2"/>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>11</v>
       </c>
@@ -3574,11 +3621,12 @@
       <c r="G66" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="2"/>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>12</v>
       </c>
@@ -3600,11 +3648,12 @@
       <c r="G67" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="2"/>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>13</v>
       </c>
@@ -3626,11 +3675,12 @@
       <c r="G68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="2"/>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>14</v>
       </c>
@@ -3652,11 +3702,12 @@
       <c r="G69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H69" s="2"/>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>92</v>
       </c>
@@ -3678,11 +3729,12 @@
       <c r="G70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H70" s="2"/>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>93</v>
       </c>
@@ -3704,11 +3756,12 @@
       <c r="G71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="2"/>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>49</v>
       </c>
@@ -3730,11 +3783,12 @@
       <c r="G72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H72" s="2"/>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>50</v>
       </c>
@@ -3756,11 +3810,12 @@
       <c r="G73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H73" s="2"/>
+      <c r="I73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>51</v>
       </c>
@@ -3782,11 +3837,12 @@
       <c r="G74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H74" s="2"/>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>52</v>
       </c>
@@ -3808,11 +3864,12 @@
       <c r="G75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="2"/>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>53</v>
       </c>
@@ -3834,11 +3891,12 @@
       <c r="G76" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="2"/>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>54</v>
       </c>
@@ -3860,11 +3918,12 @@
       <c r="G77" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H77" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H77" s="2"/>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>55</v>
       </c>
@@ -3886,11 +3945,12 @@
       <c r="G78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H78" s="2"/>
+      <c r="I78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43</v>
       </c>
@@ -3912,11 +3972,12 @@
       <c r="G79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H79" s="2"/>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44</v>
       </c>
@@ -3938,11 +3999,12 @@
       <c r="G80" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H80" s="2"/>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45</v>
       </c>
@@ -3964,11 +4026,12 @@
       <c r="G81" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H81" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="2"/>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>46</v>
       </c>
@@ -3990,11 +4053,12 @@
       <c r="G82" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H82" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="2"/>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>47</v>
       </c>
@@ -4016,11 +4080,12 @@
       <c r="G83" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="2"/>
+      <c r="I83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>48</v>
       </c>
@@ -4042,11 +4107,12 @@
       <c r="G84" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="2"/>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>23</v>
       </c>
@@ -4068,11 +4134,12 @@
       <c r="G85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="2"/>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>24</v>
       </c>
@@ -4094,11 +4161,12 @@
       <c r="G86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="2"/>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>25</v>
       </c>
@@ -4120,11 +4188,12 @@
       <c r="G87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="2"/>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>26</v>
       </c>
@@ -4146,11 +4215,12 @@
       <c r="G88" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H88" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="2"/>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>27</v>
       </c>
@@ -4172,11 +4242,12 @@
       <c r="G89" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="2"/>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>28</v>
       </c>
@@ -4198,11 +4269,12 @@
       <c r="G90" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="2"/>
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>29</v>
       </c>
@@ -4224,11 +4296,12 @@
       <c r="G91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="2"/>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>30</v>
       </c>
@@ -4250,11 +4323,12 @@
       <c r="G92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H92" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="2"/>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>56</v>
       </c>
@@ -4276,11 +4350,12 @@
       <c r="G93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H93" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="2"/>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>57</v>
       </c>
@@ -4302,12 +4377,13 @@
       <c r="G94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="2"/>
+      <c r="I94" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{FF074F3C-1B8D-4FE0-8FF8-DD367E4D8202}"/>
+  <autoFilter ref="A1:I1" xr:uid="{FF074F3C-1B8D-4FE0-8FF8-DD367E4D8202}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB4EF61-1966-4B55-8437-CF2E5D85D981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EC5620-E938-4167-8DDC-D2299465691F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>descartado</t>
+  </si>
+  <si>
+    <t>Ecologistas e Independientes</t>
+  </si>
+  <si>
+    <t>IND-</t>
   </si>
 </sst>
 </file>
@@ -843,7 +849,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A37"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1006,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1058,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1118,7 +1124,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
@@ -1130,13 +1136,13 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1144,7 +1150,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>5</v>
@@ -1156,13 +1162,13 @@
         <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1188,7 +1194,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1274,7 +1280,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -1286,13 +1292,13 @@
         <v>128</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1300,7 +1306,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
@@ -1312,13 +1318,13 @@
         <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1471,7 +1477,7 @@
         <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>26</v>
@@ -1497,7 +1503,7 @@
         <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>26</v>
@@ -1534,7 +1540,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>10</v>
@@ -1546,13 +1552,13 @@
         <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1575,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2">
         <v>10</v>
@@ -1598,13 +1604,13 @@
         <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1612,7 +1618,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2">
         <v>10</v>
@@ -1624,13 +1630,13 @@
         <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1812,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EC5620-E938-4167-8DDC-D2299465691F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F373365-9582-4033-BB8D-B9F08985727C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -471,6 +471,21 @@
   </si>
   <si>
     <t>IND-</t>
+  </si>
+  <si>
+    <t>Partido Humanista</t>
+  </si>
+  <si>
+    <t>Cristián Labbé</t>
+  </si>
+  <si>
+    <t>Rojo Edwards</t>
+  </si>
+  <si>
+    <t>Partido Republicano</t>
+  </si>
+  <si>
+    <t>Prep</t>
   </si>
 </sst>
 </file>
@@ -846,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1139,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
@@ -1136,13 +1151,13 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1150,7 +1165,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
         <v>5</v>
@@ -1162,13 +1177,13 @@
         <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1280,7 +1295,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -1292,13 +1307,13 @@
         <v>128</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1306,7 +1321,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
@@ -1318,13 +1333,13 @@
         <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1332,25 +1347,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1358,51 +1373,48 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1410,51 +1422,51 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1462,33 +1474,33 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C24" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2">
         <v>9</v>
@@ -1500,73 +1512,73 @@
         <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2">
         <v>10</v>
@@ -1578,13 +1590,13 @@
         <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1618,7 +1630,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2">
         <v>10</v>
@@ -1630,13 +1642,13 @@
         <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1644,25 +1656,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1670,51 +1682,51 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1722,77 +1734,77 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -1800,34 +1812,86 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>34</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B39" s="2">
         <v>14</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C39" s="2">
         <v>12</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="F39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H39" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
-      <sortCondition ref="C1:C37"/>
+  <autoFilter ref="A1:H39" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H39">
+      <sortCondition ref="C1:C39"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F373365-9582-4033-BB8D-B9F08985727C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C5702-4268-4E3C-A96E-E8A6F53DC2E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -461,31 +461,34 @@
     <t>PH</t>
   </si>
   <si>
-    <t>Sebastián Ugarte</t>
-  </si>
-  <si>
     <t>descartado</t>
   </si>
   <si>
     <t>Ecologistas e Independientes</t>
   </si>
   <si>
-    <t>IND-</t>
-  </si>
-  <si>
     <t>Partido Humanista</t>
   </si>
   <si>
-    <t>Cristián Labbé</t>
-  </si>
-  <si>
     <t>Rojo Edwards</t>
   </si>
   <si>
     <t>Partido Republicano</t>
   </si>
   <si>
-    <t>Prep</t>
+    <t>Catalina Parot</t>
+  </si>
+  <si>
+    <t>EVO-IND</t>
+  </si>
+  <si>
+    <t>PREP</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>COM</t>
   </si>
 </sst>
 </file>
@@ -861,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +952,7 @@
         <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -975,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1027,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1079,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1139,7 +1142,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
@@ -1151,13 +1154,13 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>5</v>
@@ -1177,13 +1180,13 @@
         <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1209,7 +1212,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1261,7 +1264,7 @@
         <v>70</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -1295,7 +1298,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -1307,21 +1310,21 @@
         <v>128</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
@@ -1333,13 +1336,13 @@
         <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1347,7 +1350,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>15</v>
@@ -1359,13 +1362,13 @@
         <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1373,56 +1376,59 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>148</v>
+        <v>23</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
         <v>8</v>
@@ -1434,39 +1440,39 @@
         <v>84</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="C23" s="2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1474,25 +1480,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1500,7 +1506,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2">
         <v>9</v>
@@ -1512,21 +1518,21 @@
         <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>9</v>
@@ -1538,10 +1544,10 @@
         <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>26</v>
@@ -1552,33 +1558,33 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
         <v>9</v>
       </c>
-      <c r="C27" s="2">
-        <v>8</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2">
         <v>10</v>
@@ -1590,13 +1596,13 @@
         <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1604,7 +1610,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>10</v>
@@ -1616,13 +1622,13 @@
         <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1630,7 +1636,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2">
         <v>10</v>
@@ -1642,13 +1648,13 @@
         <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1682,25 +1688,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1708,7 +1714,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2">
         <v>11</v>
@@ -1720,47 +1726,47 @@
         <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2">
         <v>12</v>
@@ -1772,13 +1778,13 @@
         <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -1786,33 +1792,33 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2">
         <v>13</v>
@@ -1824,74 +1830,48 @@
         <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>34</v>
-      </c>
-      <c r="B39" s="2">
-        <v>14</v>
-      </c>
-      <c r="C39" s="2">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H39" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H39">
-      <sortCondition ref="C1:C39"/>
+  <autoFilter ref="A1:H38" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H38">
+      <sortCondition ref="C1:C38"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1903,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21764D14-6BFF-44A1-9B69-9FB3FFCCE5D4}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,7 +2995,7 @@
         <v>131</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C5702-4268-4E3C-A96E-E8A6F53DC2E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F31D0AD-254E-4B9F-B28F-E1850F148E35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="163">
   <si>
     <t>id</t>
   </si>
@@ -473,22 +473,61 @@
     <t>Rojo Edwards</t>
   </si>
   <si>
-    <t>Partido Republicano</t>
-  </si>
-  <si>
     <t>Catalina Parot</t>
   </si>
   <si>
     <t>EVO-IND</t>
   </si>
   <si>
-    <t>PREP</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
     <t>COM</t>
+  </si>
+  <si>
+    <t>Rodrigo Díaz</t>
+  </si>
+  <si>
+    <t>Flor Weisse</t>
+  </si>
+  <si>
+    <t>Pedro Neira</t>
+  </si>
+  <si>
+    <t>Javier Sandoval</t>
+  </si>
+  <si>
+    <t>Tania Concha</t>
+  </si>
+  <si>
+    <t>Ana Araneda</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>René Rubeska</t>
+  </si>
+  <si>
+    <t>Juan José Arcos</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>Enrique Lee</t>
+  </si>
+  <si>
+    <t>Regionalistas Verdes</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Republicanos</t>
+  </si>
+  <si>
+    <t>REP</t>
   </si>
 </sst>
 </file>
@@ -864,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,25 +973,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -960,7 +999,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -972,13 +1011,13 @@
         <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -986,7 +1025,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -998,13 +1037,13 @@
         <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1012,25 +1051,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1038,7 +1077,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1050,13 +1089,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1064,25 +1103,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1090,7 +1129,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -1102,13 +1141,13 @@
         <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1116,25 +1155,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1142,7 +1181,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
@@ -1154,13 +1193,13 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1194,25 +1233,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1220,7 +1259,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>6</v>
@@ -1232,13 +1271,13 @@
         <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1246,33 +1285,33 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
@@ -1284,21 +1323,21 @@
         <v>128</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -1310,16 +1349,16 @@
         <v>128</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1350,7 +1389,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <v>15</v>
@@ -1362,39 +1401,39 @@
         <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1402,33 +1441,33 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2">
         <v>8</v>
@@ -1440,39 +1479,39 @@
         <v>84</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1480,25 +1519,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C24" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1506,7 +1545,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2">
         <v>9</v>
@@ -1518,21 +1557,21 @@
         <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2">
         <v>9</v>
@@ -1544,13 +1583,13 @@
         <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
@@ -1558,19 +1597,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>5</v>
@@ -1584,51 +1623,51 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1636,25 +1675,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1662,51 +1701,51 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="2">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1714,51 +1753,51 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B34" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -1766,25 +1805,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -1792,45 +1831,45 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B36" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="H36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
@@ -1844,34 +1883,216 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>30</v>
+      </c>
+      <c r="B40" s="2">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>32</v>
+      </c>
+      <c r="B42" s="2">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>33</v>
+      </c>
+      <c r="B43" s="2">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>34</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B44" s="3">
         <v>14</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C44" s="3">
         <v>12</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="F44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3">
+        <v>14</v>
+      </c>
+      <c r="C45" s="3">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H38" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H38">
-      <sortCondition ref="C1:C38"/>
+  <autoFilter ref="A1:H43" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H45">
+      <sortCondition ref="C1:C43"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F31D0AD-254E-4B9F-B28F-E1850F148E35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AB2321-5B50-4709-8258-AFF8E95D5EC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="167">
   <si>
     <t>id</t>
   </si>
@@ -528,6 +528,18 @@
   </si>
   <si>
     <t>REP</t>
+  </si>
+  <si>
+    <t>Luis Aravena</t>
+  </si>
+  <si>
+    <t>Unión Patriotica</t>
+  </si>
+  <si>
+    <t>UPA</t>
+  </si>
+  <si>
+    <t>Ricardo Rincón</t>
   </si>
 </sst>
 </file>
@@ -903,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +959,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -959,13 +971,13 @@
         <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -973,7 +985,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -985,13 +997,13 @@
         <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -999,7 +1011,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -1011,13 +1023,13 @@
         <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1025,7 +1037,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -1037,13 +1049,13 @@
         <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1051,7 +1063,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1063,13 +1075,13 @@
         <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1077,7 +1089,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1089,13 +1101,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1103,7 +1115,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -1115,13 +1127,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1129,7 +1141,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -1141,13 +1153,13 @@
         <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1155,7 +1167,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
@@ -1167,13 +1179,13 @@
         <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1181,7 +1193,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
@@ -1193,13 +1205,13 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1207,7 +1219,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
         <v>5</v>
@@ -1219,13 +1231,13 @@
         <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1233,7 +1245,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
         <v>5</v>
@@ -1245,13 +1257,13 @@
         <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1311,33 +1323,33 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="H16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -1349,21 +1361,21 @@
         <v>128</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
@@ -1375,21 +1387,21 @@
         <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
         <v>15</v>
@@ -1401,16 +1413,16 @@
         <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1441,25 +1453,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1467,51 +1479,51 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1519,25 +1531,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1545,59 +1557,59 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C26" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2">
         <v>9</v>
@@ -1609,16 +1621,16 @@
         <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1675,7 +1687,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2">
         <v>9</v>
@@ -1687,13 +1699,13 @@
         <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1701,7 +1713,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2">
         <v>9</v>
@@ -1713,65 +1725,65 @@
         <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1779,7 +1791,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2">
         <v>10</v>
@@ -1791,13 +1803,13 @@
         <v>18</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -1805,7 +1817,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2">
         <v>10</v>
@@ -1817,13 +1829,13 @@
         <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -1831,7 +1843,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
         <v>10</v>
@@ -1843,13 +1855,13 @@
         <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -1857,7 +1869,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B37" s="2">
         <v>10</v>
@@ -1869,13 +1881,13 @@
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -1883,25 +1895,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -1909,77 +1921,77 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B39" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -1987,51 +1999,51 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2039,25 +2051,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>34</v>
-      </c>
-      <c r="B44" s="3">
-        <v>14</v>
-      </c>
-      <c r="C44" s="3">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="B44" s="2">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2">
+        <v>11</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2065,36 +2077,92 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
+        <v>32</v>
+      </c>
+      <c r="B45" s="2">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>38</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B46" s="3">
         <v>14</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C46" s="3">
         <v>12</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>34</v>
+      </c>
+      <c r="B47" s="3">
+        <v>14</v>
+      </c>
+      <c r="C47" s="3">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H43" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H45">
-      <sortCondition ref="C1:C43"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
+      <sortCondition ref="A1:A43"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
+    <sortCondition ref="C2:C48"/>
+    <sortCondition ref="F2:F48"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AB2321-5B50-4709-8258-AFF8E95D5EC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D517BEA-0429-4740-9427-3D1B5E58A453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -540,6 +540,9 @@
   </si>
   <si>
     <t>Ricardo Rincón</t>
+  </si>
+  <si>
+    <t>Manuel Millones</t>
   </si>
 </sst>
 </file>
@@ -915,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
         <v>6</v>
@@ -1283,10 +1286,10 @@
         <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>146</v>
@@ -1297,7 +1300,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2">
         <v>6</v>
@@ -1309,13 +1312,13 @@
         <v>112</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1323,7 +1326,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
@@ -1335,13 +1338,13 @@
         <v>112</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1349,33 +1352,33 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
@@ -1387,13 +1390,13 @@
         <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1401,7 +1404,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2">
         <v>15</v>
@@ -1413,21 +1416,21 @@
         <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2">
         <v>15</v>
@@ -1439,13 +1442,13 @@
         <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2">
         <v>15</v>
@@ -1465,13 +1468,13 @@
         <v>128</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1479,25 +1482,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1505,7 +1508,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2">
         <v>7</v>
@@ -1517,13 +1520,13 @@
         <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1531,25 +1534,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1557,7 +1560,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
         <v>8</v>
@@ -1569,73 +1572,73 @@
         <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C27" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2">
         <v>9</v>
@@ -1647,13 +1650,13 @@
         <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
@@ -1661,7 +1664,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2">
         <v>9</v>
@@ -1673,21 +1676,21 @@
         <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2">
         <v>9</v>
@@ -1699,13 +1702,13 @@
         <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1713,7 +1716,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B31" s="2">
         <v>9</v>
@@ -1725,13 +1728,13 @@
         <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1739,7 +1742,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2">
         <v>9</v>
@@ -1751,21 +1754,21 @@
         <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2">
         <v>9</v>
@@ -1777,39 +1780,39 @@
         <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -1817,7 +1820,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2">
         <v>10</v>
@@ -1829,13 +1832,13 @@
         <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B36" s="2">
         <v>10</v>
@@ -1855,13 +1858,13 @@
         <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -1869,7 +1872,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2">
         <v>10</v>
@@ -1881,13 +1884,13 @@
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -1895,7 +1898,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2">
         <v>10</v>
@@ -1907,13 +1910,13 @@
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
         <v>10</v>
@@ -1933,13 +1936,13 @@
         <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -1947,33 +1950,33 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" s="2">
         <v>11</v>
@@ -1985,39 +1988,39 @@
         <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B42" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2025,7 +2028,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2">
         <v>12</v>
@@ -2037,13 +2040,13 @@
         <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2051,25 +2054,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B44" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2077,7 +2080,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B45" s="2">
         <v>13</v>
@@ -2089,47 +2092,47 @@
         <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>38</v>
-      </c>
-      <c r="B46" s="3">
-        <v>14</v>
-      </c>
-      <c r="C46" s="3">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="B46" s="2">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2">
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B47" s="3">
         <v>14</v>
@@ -2141,27 +2144,53 @@
         <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>34</v>
+      </c>
+      <c r="B48" s="3">
+        <v>14</v>
+      </c>
+      <c r="C48" s="3">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H48" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H43" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
-      <sortCondition ref="A1:A43"/>
+  <autoFilter ref="A1:H44" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
+      <sortCondition ref="A1:A44"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
-    <sortCondition ref="C2:C48"/>
-    <sortCondition ref="F2:F48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
+    <sortCondition ref="C2:C49"/>
+    <sortCondition ref="F2:F49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D517BEA-0429-4740-9427-3D1B5E58A453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22508FD7-7FE7-4419-AC21-F415EBC6BD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -543,6 +543,12 @@
   </si>
   <si>
     <t>Manuel Millones</t>
+  </si>
+  <si>
+    <t>Nathalie Joignant</t>
+  </si>
+  <si>
+    <t>Partido Ecologista Verde</t>
   </si>
 </sst>
 </file>
@@ -918,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1436,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <v>15</v>
@@ -1442,21 +1448,21 @@
         <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2">
         <v>15</v>
@@ -1468,13 +1474,13 @@
         <v>128</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
         <v>15</v>
@@ -1494,13 +1500,13 @@
         <v>128</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1508,25 +1514,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1534,7 +1540,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2">
         <v>7</v>
@@ -1546,13 +1552,13 @@
         <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1560,25 +1566,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2">
         <v>8</v>
@@ -1598,73 +1604,73 @@
         <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C28" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2">
         <v>9</v>
@@ -1676,13 +1682,13 @@
         <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -1690,7 +1696,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2">
         <v>9</v>
@@ -1702,21 +1708,21 @@
         <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2">
         <v>9</v>
@@ -1728,13 +1734,13 @@
         <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1742,7 +1748,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B32" s="2">
         <v>9</v>
@@ -1754,13 +1760,13 @@
         <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1768,7 +1774,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2">
         <v>9</v>
@@ -1780,21 +1786,21 @@
         <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2">
         <v>9</v>
@@ -1806,39 +1812,39 @@
         <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -1846,7 +1852,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2">
         <v>10</v>
@@ -1858,13 +1864,13 @@
         <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -1872,7 +1878,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2">
         <v>10</v>
@@ -1884,13 +1890,13 @@
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -1898,7 +1904,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>10</v>
@@ -1910,13 +1916,13 @@
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -1924,7 +1930,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B39" s="2">
         <v>10</v>
@@ -1936,13 +1942,13 @@
         <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -1950,7 +1956,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2">
         <v>10</v>
@@ -1962,13 +1968,13 @@
         <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -1976,33 +1982,33 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B41" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" s="2">
         <v>11</v>
@@ -2014,39 +2020,39 @@
         <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B43" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2054,7 +2060,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" s="2">
         <v>12</v>
@@ -2066,13 +2072,13 @@
         <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2080,25 +2086,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B45" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2106,7 +2112,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46" s="2">
         <v>13</v>
@@ -2118,47 +2124,47 @@
         <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>38</v>
-      </c>
-      <c r="B47" s="3">
-        <v>14</v>
-      </c>
-      <c r="C47" s="3">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="B47" s="2">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2">
+        <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B48" s="3">
         <v>14</v>
@@ -2170,27 +2176,53 @@
         <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>34</v>
+      </c>
+      <c r="B49" s="3">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H49" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H44" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
-      <sortCondition ref="A1:A44"/>
+  <autoFilter ref="A1:H45" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
+      <sortCondition ref="A1:A45"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
-    <sortCondition ref="C2:C49"/>
-    <sortCondition ref="F2:F49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H50">
+    <sortCondition ref="C2:C50"/>
+    <sortCondition ref="F2:F50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22508FD7-7FE7-4419-AC21-F415EBC6BD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C45DBBE-956C-4ADB-A2D5-AFE65E39CE4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -924,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +968,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2">
         <v>5</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
         <v>6</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2">
         <v>6</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
         <v>15</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
         <v>15</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2">
         <v>7</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
         <v>9</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
         <v>9</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2">
         <v>9</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
         <v>9</v>
@@ -1864,13 +1864,13 @@
         <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
         <v>10</v>
@@ -1890,13 +1890,13 @@
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2">
         <v>10</v>
@@ -1916,13 +1916,13 @@
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
         <v>10</v>
@@ -1942,13 +1942,13 @@
         <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2">
         <v>10</v>
@@ -1968,13 +1968,13 @@
         <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -1982,33 +1982,33 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42" s="2">
         <v>11</v>
@@ -2020,39 +2020,39 @@
         <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B44" s="2">
         <v>12</v>
@@ -2072,13 +2072,13 @@
         <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2086,25 +2086,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" s="2">
         <v>13</v>
@@ -2124,47 +2124,47 @@
         <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>32</v>
-      </c>
-      <c r="B47" s="2">
-        <v>13</v>
-      </c>
-      <c r="C47" s="2">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B47" s="3">
+        <v>14</v>
+      </c>
+      <c r="C47" s="3">
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="H47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B48" s="3">
         <v>14</v>
@@ -2176,53 +2176,27 @@
         <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>34</v>
-      </c>
-      <c r="B49" s="3">
-        <v>14</v>
-      </c>
-      <c r="C49" s="3">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H45" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
-      <sortCondition ref="A1:A45"/>
+  <autoFilter ref="A1:H44" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
+      <sortCondition ref="A1:A44"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H50">
-    <sortCondition ref="C2:C50"/>
-    <sortCondition ref="F2:F50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
+    <sortCondition ref="C2:C49"/>
+    <sortCondition ref="F2:F49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2233,12 +2207,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21764D14-6BFF-44A1-9B69-9FB3FFCCE5D4}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4129,7 +4105,9 @@
       <c r="G70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="I70" s="2">
         <v>0</v>
       </c>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C45DBBE-956C-4ADB-A2D5-AFE65E39CE4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE9BA2-A9DD-4473-AD78-2E67F18BB27F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="171">
   <si>
     <t>id</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>Partido Ecologista Verde</t>
+  </si>
+  <si>
+    <t>Ricardo Georges</t>
   </si>
 </sst>
 </file>
@@ -924,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1335,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
@@ -1344,13 +1347,13 @@
         <v>112</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1358,7 +1361,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2">
         <v>6</v>
@@ -1370,13 +1373,13 @@
         <v>112</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1384,33 +1387,33 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
         <v>15</v>
@@ -1422,13 +1425,13 @@
         <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -1436,7 +1439,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
         <v>15</v>
@@ -1448,13 +1451,13 @@
         <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -1462,7 +1465,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
         <v>15</v>
@@ -1474,21 +1477,21 @@
         <v>128</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2">
         <v>15</v>
@@ -1500,13 +1503,13 @@
         <v>128</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1514,7 +1517,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2">
         <v>15</v>
@@ -1526,13 +1529,13 @@
         <v>128</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1540,25 +1543,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1566,7 +1569,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2">
         <v>7</v>
@@ -1578,13 +1581,13 @@
         <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1592,25 +1595,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1618,7 +1621,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2">
         <v>8</v>
@@ -1630,73 +1633,73 @@
         <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C29" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2">
         <v>9</v>
@@ -1708,13 +1711,13 @@
         <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -1722,7 +1725,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
         <v>9</v>
@@ -1734,21 +1737,21 @@
         <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
         <v>9</v>
@@ -1760,13 +1763,13 @@
         <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1774,7 +1777,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B33" s="2">
         <v>9</v>
@@ -1786,13 +1789,13 @@
         <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1800,7 +1803,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2">
         <v>9</v>
@@ -1812,21 +1815,21 @@
         <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="H34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2">
         <v>9</v>
@@ -1838,39 +1841,39 @@
         <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -1878,7 +1881,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B37" s="2">
         <v>10</v>
@@ -1890,13 +1893,13 @@
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -1904,7 +1907,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2">
         <v>10</v>
@@ -1916,13 +1919,13 @@
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -1930,7 +1933,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B39" s="2">
         <v>10</v>
@@ -1942,13 +1945,13 @@
         <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -1956,7 +1959,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2">
         <v>10</v>
@@ -1968,13 +1971,13 @@
         <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -1982,33 +1985,33 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B41" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42" s="2">
         <v>11</v>
@@ -2020,39 +2023,39 @@
         <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B43" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2060,7 +2063,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B44" s="2">
         <v>12</v>
@@ -2072,13 +2075,13 @@
         <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2086,25 +2089,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B45" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2112,7 +2115,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B46" s="2">
         <v>13</v>
@@ -2124,47 +2127,47 @@
         <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>37</v>
-      </c>
-      <c r="B47" s="3">
-        <v>14</v>
-      </c>
-      <c r="C47" s="3">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="B47" s="2">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2">
+        <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B48" s="3">
         <v>14</v>
@@ -2176,27 +2179,53 @@
         <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>33</v>
+      </c>
+      <c r="B49" s="3">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H49" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H44" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
-      <sortCondition ref="A1:A44"/>
+  <autoFilter ref="A1:H45" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
+      <sortCondition ref="A1:A45"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
-    <sortCondition ref="C2:C49"/>
-    <sortCondition ref="F2:F49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H50">
+    <sortCondition ref="C2:C50"/>
+    <sortCondition ref="F2:F50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE9BA2-A9DD-4473-AD78-2E67F18BB27F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C45DBBE-956C-4ADB-A2D5-AFE65E39CE4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>Partido Ecologista Verde</t>
-  </si>
-  <si>
-    <t>Ricardo Georges</t>
   </si>
 </sst>
 </file>
@@ -927,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
@@ -1347,13 +1344,13 @@
         <v>112</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1361,7 +1358,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2">
         <v>6</v>
@@ -1373,13 +1370,13 @@
         <v>112</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1387,33 +1384,33 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2">
         <v>15</v>
@@ -1425,13 +1422,13 @@
         <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -1439,7 +1436,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
         <v>15</v>
@@ -1451,13 +1448,13 @@
         <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -1465,7 +1462,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2">
         <v>15</v>
@@ -1477,21 +1474,21 @@
         <v>128</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
         <v>15</v>
@@ -1503,13 +1500,13 @@
         <v>128</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2">
         <v>15</v>
@@ -1529,13 +1526,13 @@
         <v>128</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1543,25 +1540,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1569,7 +1566,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2">
         <v>7</v>
@@ -1581,13 +1578,13 @@
         <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1595,25 +1592,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
         <v>7</v>
       </c>
-      <c r="C26" s="2">
-        <v>6</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1621,7 +1618,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2">
         <v>8</v>
@@ -1633,73 +1630,73 @@
         <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="C28" s="2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
         <v>9</v>
@@ -1711,13 +1708,13 @@
         <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -1725,7 +1722,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
         <v>9</v>
@@ -1737,21 +1734,21 @@
         <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B32" s="2">
         <v>9</v>
@@ -1763,13 +1760,13 @@
         <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1777,7 +1774,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2">
         <v>9</v>
@@ -1789,13 +1786,13 @@
         <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1803,7 +1800,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
         <v>9</v>
@@ -1815,21 +1812,21 @@
         <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2">
         <v>9</v>
@@ -1841,39 +1838,39 @@
         <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2">
         <v>9</v>
       </c>
-      <c r="C36" s="2">
-        <v>8</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -1881,7 +1878,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
         <v>10</v>
@@ -1893,13 +1890,13 @@
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -1907,7 +1904,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2">
         <v>10</v>
@@ -1919,13 +1916,13 @@
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -1933,7 +1930,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
         <v>10</v>
@@ -1945,13 +1942,13 @@
         <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -1959,7 +1956,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2">
         <v>10</v>
@@ -1971,13 +1968,13 @@
         <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -1985,33 +1982,33 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="2">
         <v>11</v>
@@ -2023,39 +2020,39 @@
         <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2063,7 +2060,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="2">
         <v>12</v>
@@ -2075,13 +2072,13 @@
         <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2089,25 +2086,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2115,7 +2112,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" s="2">
         <v>13</v>
@@ -2127,47 +2124,47 @@
         <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>31</v>
-      </c>
-      <c r="B47" s="2">
-        <v>13</v>
-      </c>
-      <c r="C47" s="2">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B47" s="3">
+        <v>14</v>
+      </c>
+      <c r="C47" s="3">
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="H47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B48" s="3">
         <v>14</v>
@@ -2179,53 +2176,27 @@
         <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>33</v>
-      </c>
-      <c r="B49" s="3">
-        <v>14</v>
-      </c>
-      <c r="C49" s="3">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H45" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
-      <sortCondition ref="A1:A45"/>
+  <autoFilter ref="A1:H44" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
+      <sortCondition ref="A1:A44"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H50">
-    <sortCondition ref="C2:C50"/>
-    <sortCondition ref="F2:F50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
+    <sortCondition ref="C2:C49"/>
+    <sortCondition ref="F2:F49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C5702-4268-4E3C-A96E-E8A6F53DC2E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE9BA2-A9DD-4473-AD78-2E67F18BB27F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="171">
   <si>
     <t>id</t>
   </si>
@@ -473,22 +473,85 @@
     <t>Rojo Edwards</t>
   </si>
   <si>
-    <t>Partido Republicano</t>
-  </si>
-  <si>
     <t>Catalina Parot</t>
   </si>
   <si>
     <t>EVO-IND</t>
   </si>
   <si>
-    <t>PREP</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
     <t>COM</t>
+  </si>
+  <si>
+    <t>Rodrigo Díaz</t>
+  </si>
+  <si>
+    <t>Flor Weisse</t>
+  </si>
+  <si>
+    <t>Pedro Neira</t>
+  </si>
+  <si>
+    <t>Javier Sandoval</t>
+  </si>
+  <si>
+    <t>Tania Concha</t>
+  </si>
+  <si>
+    <t>Ana Araneda</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>René Rubeska</t>
+  </si>
+  <si>
+    <t>Juan José Arcos</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>Enrique Lee</t>
+  </si>
+  <si>
+    <t>Regionalistas Verdes</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Republicanos</t>
+  </si>
+  <si>
+    <t>REP</t>
+  </si>
+  <si>
+    <t>Luis Aravena</t>
+  </si>
+  <si>
+    <t>Unión Patriotica</t>
+  </si>
+  <si>
+    <t>UPA</t>
+  </si>
+  <si>
+    <t>Ricardo Rincón</t>
+  </si>
+  <si>
+    <t>Manuel Millones</t>
+  </si>
+  <si>
+    <t>Nathalie Joignant</t>
+  </si>
+  <si>
+    <t>Partido Ecologista Verde</t>
+  </si>
+  <si>
+    <t>Ricardo Georges</t>
   </si>
 </sst>
 </file>
@@ -864,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +971,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -920,13 +983,13 @@
         <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -934,25 +997,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -960,7 +1023,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -972,13 +1035,13 @@
         <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -986,7 +1049,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -998,13 +1061,13 @@
         <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1012,25 +1075,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1064,25 +1127,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1116,25 +1179,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1142,7 +1205,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
@@ -1154,13 +1217,13 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1168,7 +1231,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2">
         <v>5</v>
@@ -1180,13 +1243,13 @@
         <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1194,25 +1257,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1220,7 +1283,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
         <v>6</v>
@@ -1232,13 +1295,13 @@
         <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1246,51 +1309,51 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1298,51 +1361,51 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1350,7 +1413,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
         <v>15</v>
@@ -1362,65 +1425,65 @@
         <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
@@ -1428,25 +1491,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1454,25 +1517,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1480,19 +1543,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>5</v>
@@ -1506,77 +1569,77 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1584,51 +1647,51 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="C29" s="2">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1636,77 +1699,77 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1714,51 +1777,51 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B33" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -1766,77 +1829,77 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B37" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -1844,36 +1907,326 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>25</v>
+      </c>
+      <c r="B39" s="2">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>23</v>
+      </c>
+      <c r="B40" s="2">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>24</v>
+      </c>
+      <c r="B41" s="2">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>27</v>
+      </c>
+      <c r="B43" s="2">
+        <v>11</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>30</v>
+      </c>
+      <c r="B44" s="2">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>29</v>
+      </c>
+      <c r="B45" s="2">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>32</v>
+      </c>
+      <c r="B46" s="2">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2">
+        <v>11</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>31</v>
+      </c>
+      <c r="B47" s="2">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>37</v>
+      </c>
+      <c r="B48" s="3">
         <v>14</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C48" s="3">
         <v>12</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>33</v>
+      </c>
+      <c r="B49" s="3">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="F49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H38" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H38">
-      <sortCondition ref="C1:C38"/>
+  <autoFilter ref="A1:H45" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
+      <sortCondition ref="A1:A45"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H50">
+    <sortCondition ref="C2:C50"/>
+    <sortCondition ref="F2:F50"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1883,12 +2236,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21764D14-6BFF-44A1-9B69-9FB3FFCCE5D4}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3779,7 +4134,9 @@
       <c r="G70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="I70" s="2">
         <v>0</v>
       </c>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE9BA2-A9DD-4473-AD78-2E67F18BB27F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A3EF33-723B-4568-826D-88612B4A5135}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="213">
   <si>
     <t>id</t>
   </si>
@@ -476,9 +476,6 @@
     <t>Catalina Parot</t>
   </si>
   <si>
-    <t>EVO-IND</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
@@ -494,9 +491,6 @@
     <t>Pedro Neira</t>
   </si>
   <si>
-    <t>Javier Sandoval</t>
-  </si>
-  <si>
     <t>Tania Concha</t>
   </si>
   <si>
@@ -548,10 +542,142 @@
     <t>Nathalie Joignant</t>
   </si>
   <si>
-    <t>Partido Ecologista Verde</t>
-  </si>
-  <si>
     <t>Ricardo Georges</t>
+  </si>
+  <si>
+    <t>Orlando Vargas</t>
+  </si>
+  <si>
+    <t>Juan Meruvia</t>
+  </si>
+  <si>
+    <t>Dignidad Regional</t>
+  </si>
+  <si>
+    <t>Javier Castillo</t>
+  </si>
+  <si>
+    <t>FRVS</t>
+  </si>
+  <si>
+    <t>Marco Maturana</t>
+  </si>
+  <si>
+    <t>Miguel Vargas</t>
+  </si>
+  <si>
+    <t>Javier Vega</t>
+  </si>
+  <si>
+    <t>Humanicemos Chile</t>
+  </si>
+  <si>
+    <t>Igualdad Para Chile</t>
+  </si>
+  <si>
+    <t>Marco Oyanedel</t>
+  </si>
+  <si>
+    <t>Fresia Quilodran</t>
+  </si>
+  <si>
+    <t>Franklin Gallardo</t>
+  </si>
+  <si>
+    <t>Eduardo Cornejo</t>
+  </si>
+  <si>
+    <t>Esteban Valenzuela</t>
+  </si>
+  <si>
+    <t>Iván Sepúlveda</t>
+  </si>
+  <si>
+    <t>Juan Vañdebenito</t>
+  </si>
+  <si>
+    <t>Gabriel Rojas</t>
+  </si>
+  <si>
+    <t>Manuel Améstica</t>
+  </si>
+  <si>
+    <t>Francisco Pulgar</t>
+  </si>
+  <si>
+    <t>Julio Becerra</t>
+  </si>
+  <si>
+    <t>Jezer Sepúlveda</t>
+  </si>
+  <si>
+    <t>Ignacio Marín</t>
+  </si>
+  <si>
+    <t>Guillermo Riveros</t>
+  </si>
+  <si>
+    <t>Óscar Fernández</t>
+  </si>
+  <si>
+    <t>José Videla</t>
+  </si>
+  <si>
+    <t>PCC</t>
+  </si>
+  <si>
+    <t>Francisco J. Sandoval</t>
+  </si>
+  <si>
+    <t>Gastón Flores</t>
+  </si>
+  <si>
+    <t>Luis Vivanco</t>
+  </si>
+  <si>
+    <t>Aucan Huilcaman</t>
+  </si>
+  <si>
+    <t>César Vargas</t>
+  </si>
+  <si>
+    <t>Independientes Cristianos</t>
+  </si>
+  <si>
+    <t>Vicente Painel</t>
+  </si>
+  <si>
+    <t>Partido Nacional Ciudadano</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>Luz Soto</t>
+  </si>
+  <si>
+    <t>Paola Peña</t>
+  </si>
+  <si>
+    <t>Elías Sabat</t>
+  </si>
+  <si>
+    <t>Alfonso Belmar</t>
+  </si>
+  <si>
+    <t>Ricardo Kuschel</t>
+  </si>
+  <si>
+    <t>Paola Venegas</t>
+  </si>
+  <si>
+    <t>Claudio Flores</t>
+  </si>
+  <si>
+    <t>Christian Matheson</t>
+  </si>
+  <si>
+    <t>Manuel Correa</t>
   </si>
 </sst>
 </file>
@@ -927,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +1097,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -983,13 +1109,13 @@
         <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -997,7 +1123,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1009,13 +1135,13 @@
         <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1023,25 +1149,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1049,25 +1175,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1075,7 +1201,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1087,13 +1213,13 @@
         <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1101,25 +1227,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1127,25 +1253,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1153,19 +1279,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
@@ -1182,22 +1308,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1205,25 +1331,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1231,25 +1357,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1257,25 +1383,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1283,25 +1409,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1309,25 +1435,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1335,25 +1461,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1361,25 +1487,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1387,25 +1513,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1413,100 +1539,100 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>139</v>
@@ -1517,25 +1643,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1543,25 +1669,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1569,25 +1695,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1595,77 +1721,77 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
@@ -1673,25 +1799,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1699,103 +1825,103 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="H30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B31" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1803,25 +1929,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -1829,51 +1955,51 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="H35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -1881,25 +2007,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -1907,19 +2033,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
@@ -1933,25 +2059,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -1959,25 +2085,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -1985,25 +2111,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2011,51 +2137,51 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2063,51 +2189,51 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B44" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="C45" s="2">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2115,25 +2241,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="C46" s="2">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2141,51 +2267,51 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="C47" s="2">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>37</v>
-      </c>
-      <c r="B48" s="3">
-        <v>14</v>
-      </c>
-      <c r="C48" s="3">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7.5</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2193,39 +2319,970 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
+        <v>73</v>
+      </c>
+      <c r="B49" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>62</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>22</v>
+      </c>
+      <c r="B51" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>24</v>
+      </c>
+      <c r="B52" s="2">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>43</v>
+      </c>
+      <c r="B53" s="2">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>46</v>
+      </c>
+      <c r="B54" s="2">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>44</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>23</v>
+      </c>
+      <c r="B56" s="2">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45</v>
+      </c>
+      <c r="B57" s="2">
+        <v>9</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>25</v>
+      </c>
+      <c r="B58" s="2">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>84</v>
+      </c>
+      <c r="B59" s="2">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>29</v>
+      </c>
+      <c r="B60" s="2">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>28</v>
+      </c>
+      <c r="B61" s="2">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>76</v>
+      </c>
+      <c r="B62" s="2">
+        <v>10</v>
+      </c>
+      <c r="C62" s="2">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2">
+        <v>10</v>
+      </c>
+      <c r="C63" s="2">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2">
+        <v>10</v>
+      </c>
+      <c r="C64" s="2">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>42</v>
+      </c>
+      <c r="B65" s="2">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>54</v>
+      </c>
+      <c r="B66" s="2">
+        <v>10</v>
+      </c>
+      <c r="C66" s="2">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>26</v>
+      </c>
+      <c r="B67" s="2">
+        <v>10</v>
+      </c>
+      <c r="C67" s="2">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>27</v>
+      </c>
+      <c r="B68" s="2">
+        <v>10</v>
+      </c>
+      <c r="C68" s="2">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>31</v>
+      </c>
+      <c r="B69" s="2">
+        <v>11</v>
+      </c>
+      <c r="C69" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>71</v>
+      </c>
+      <c r="B70" s="2">
+        <v>11</v>
+      </c>
+      <c r="C70" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>77</v>
+      </c>
+      <c r="B71" s="2">
+        <v>11</v>
+      </c>
+      <c r="C71" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>65</v>
+      </c>
+      <c r="B72" s="2">
+        <v>11</v>
+      </c>
+      <c r="C72" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>30</v>
+      </c>
+      <c r="B73" s="2">
+        <v>11</v>
+      </c>
+      <c r="C73" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>80</v>
+      </c>
+      <c r="B74" s="2">
+        <v>12</v>
+      </c>
+      <c r="C74" s="2">
+        <v>10</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2">
+        <v>12</v>
+      </c>
+      <c r="C75" s="2">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>12</v>
+      </c>
+      <c r="C76" s="2">
+        <v>10</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>33</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B77" s="2">
+        <v>12</v>
+      </c>
+      <c r="C77" s="2">
+        <v>10</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>32</v>
+      </c>
+      <c r="B78" s="2">
+        <v>12</v>
+      </c>
+      <c r="C78" s="2">
+        <v>10</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>35</v>
+      </c>
+      <c r="B79" s="2">
+        <v>13</v>
+      </c>
+      <c r="C79" s="2">
+        <v>11</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>34</v>
+      </c>
+      <c r="B80" s="2">
+        <v>13</v>
+      </c>
+      <c r="C80" s="2">
+        <v>11</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>40</v>
+      </c>
+      <c r="B81" s="3">
         <v>14</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C81" s="3">
         <v>12</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E81" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>66</v>
+      </c>
+      <c r="B82" s="3">
+        <v>14</v>
+      </c>
+      <c r="C82" s="3">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>67</v>
+      </c>
+      <c r="B83" s="3">
+        <v>14</v>
+      </c>
+      <c r="C83" s="3">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>68</v>
+      </c>
+      <c r="B84" s="3">
+        <v>14</v>
+      </c>
+      <c r="C84" s="3">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>36</v>
+      </c>
+      <c r="B85" s="3">
+        <v>14</v>
+      </c>
+      <c r="C85" s="3">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="F85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H85" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H45" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
-      <sortCondition ref="A1:A45"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H50">
-    <sortCondition ref="C2:C50"/>
-    <sortCondition ref="F2:F50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H89">
+    <sortCondition ref="C2:C89"/>
+    <sortCondition ref="F2:F89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE9BA2-A9DD-4473-AD78-2E67F18BB27F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7752066C-CE3D-4B79-A615-97633A374D86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$45</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t>Ricardo Georges</t>
+  </si>
+  <si>
+    <t>Partido Nacional Ciudadano</t>
+  </si>
+  <si>
+    <t>PNC</t>
   </si>
 </sst>
 </file>
@@ -930,10 +936,10 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1922,10 +1928,10 @@
         <v>155</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2218,11 +2224,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H45" xr:uid="{3EAA03FF-371C-47AC-80DC-0C2BCABFA195}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
-      <sortCondition ref="A1:A45"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H50">
     <sortCondition ref="C2:C50"/>
     <sortCondition ref="F2:F50"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7752066C-CE3D-4B79-A615-97633A374D86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339DFBEB-52D9-4B7A-9244-6266150C28FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,9 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="214">
   <si>
     <t>id</t>
   </si>
@@ -467,9 +467,6 @@
     <t>Ecologistas e Independientes</t>
   </si>
   <si>
-    <t>Partido Humanista</t>
-  </si>
-  <si>
     <t>Rojo Edwards</t>
   </si>
   <si>
@@ -491,12 +488,6 @@
     <t>Flor Weisse</t>
   </si>
   <si>
-    <t>Pedro Neira</t>
-  </si>
-  <si>
-    <t>Javier Sandoval</t>
-  </si>
-  <si>
     <t>Tania Concha</t>
   </si>
   <si>
@@ -558,6 +549,138 @@
   </si>
   <si>
     <t>PNC</t>
+  </si>
+  <si>
+    <t>Ricardo Kuschel Silva</t>
+  </si>
+  <si>
+    <t>Alfonso Belmar</t>
+  </si>
+  <si>
+    <t>Paola Venegas</t>
+  </si>
+  <si>
+    <t>Dignidad Regional</t>
+  </si>
+  <si>
+    <t>Orlando Vargas</t>
+  </si>
+  <si>
+    <t>Roberto Quintana</t>
+  </si>
+  <si>
+    <t>Juan Meruvia</t>
+  </si>
+  <si>
+    <t>Paula Orellana</t>
+  </si>
+  <si>
+    <t>Claudio Lagos</t>
+  </si>
+  <si>
+    <t>Lester Calderón</t>
+  </si>
+  <si>
+    <t>Trabajadores Revolucionarios</t>
+  </si>
+  <si>
+    <t>PTR</t>
+  </si>
+  <si>
+    <t>FRVS</t>
+  </si>
+  <si>
+    <t>Javier Castillo</t>
+  </si>
+  <si>
+    <t>Marco Maturana</t>
+  </si>
+  <si>
+    <t>Miguel Vargas</t>
+  </si>
+  <si>
+    <t>Javier Vega</t>
+  </si>
+  <si>
+    <t>Fresia Quilodrán</t>
+  </si>
+  <si>
+    <t>Franklin Gallardo</t>
+  </si>
+  <si>
+    <t>Eduardo Cornejo</t>
+  </si>
+  <si>
+    <t>Esteban Valenzuela</t>
+  </si>
+  <si>
+    <t>Iván Sepúlveda</t>
+  </si>
+  <si>
+    <t>Juan Valdebenito</t>
+  </si>
+  <si>
+    <t>Gabriel Rojas</t>
+  </si>
+  <si>
+    <t>Manuel Amestica</t>
+  </si>
+  <si>
+    <t>Francisco Pulgar</t>
+  </si>
+  <si>
+    <t>Humanicemos Chile</t>
+  </si>
+  <si>
+    <t>Julio Becerra</t>
+  </si>
+  <si>
+    <t>Jezer Sepúlveda</t>
+  </si>
+  <si>
+    <t>Ignacio Marín</t>
+  </si>
+  <si>
+    <t>Guillermo Riveros</t>
+  </si>
+  <si>
+    <t>Óscar Fernández</t>
+  </si>
+  <si>
+    <t>José Antonio Videla</t>
+  </si>
+  <si>
+    <t>Igualdad para Chile</t>
+  </si>
+  <si>
+    <t>Independientes Cristianos</t>
+  </si>
+  <si>
+    <t>PCC</t>
+  </si>
+  <si>
+    <t>Francisco Sandoval</t>
+  </si>
+  <si>
+    <t>Gastón Flores</t>
+  </si>
+  <si>
+    <t>Luz Soto</t>
+  </si>
+  <si>
+    <t>Paola Peña</t>
+  </si>
+  <si>
+    <t>Elías Sabat</t>
+  </si>
+  <si>
+    <t>Claudio Flores</t>
+  </si>
+  <si>
+    <t>Christián Matheson</t>
+  </si>
+  <si>
+    <t>Manuel Correa</t>
   </si>
 </sst>
 </file>
@@ -933,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,13 +1112,13 @@
         <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1003,7 +1126,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1015,13 +1138,13 @@
         <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1029,25 +1152,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1055,25 +1178,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1081,25 +1204,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1107,25 +1230,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1133,22 +1256,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>146</v>
@@ -1159,25 +1282,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1185,25 +1308,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1211,51 +1334,51 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1263,25 +1386,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1289,25 +1412,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1315,25 +1438,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1341,25 +1464,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1367,25 +1490,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1393,25 +1516,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1419,103 +1542,103 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1523,25 +1646,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1549,25 +1672,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1575,25 +1698,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1601,25 +1724,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1627,25 +1750,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1653,77 +1776,77 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -1731,77 +1854,77 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1809,25 +1932,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -1835,25 +1958,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
@@ -1861,25 +1984,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -1887,25 +2010,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -1913,25 +2036,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -1939,25 +2062,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -1965,25 +2088,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B40" s="2">
-        <v>10</v>
-      </c>
-      <c r="C40" s="2">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -1991,25 +2114,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B41" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2017,51 +2140,51 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2069,25 +2192,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2095,25 +2218,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C45" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2121,25 +2244,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C46" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2147,25 +2270,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B47" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
@@ -2173,25 +2296,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>37</v>
-      </c>
-      <c r="B48" s="3">
-        <v>14</v>
-      </c>
-      <c r="C48" s="3">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7.5</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2199,34 +2322,918 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
+        <v>67</v>
+      </c>
+      <c r="B49" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>69</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>71</v>
+      </c>
+      <c r="B52" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C53" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>19</v>
+      </c>
+      <c r="B54" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C54" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>21</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>40</v>
+      </c>
+      <c r="B56" s="2">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>41</v>
+      </c>
+      <c r="B57" s="2">
+        <v>9</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>20</v>
+      </c>
+      <c r="B58" s="2">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>42</v>
+      </c>
+      <c r="B59" s="2">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>22</v>
+      </c>
+      <c r="B60" s="2">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>73</v>
+      </c>
+      <c r="B61" s="2">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>26</v>
+      </c>
+      <c r="B62" s="2">
+        <v>10</v>
+      </c>
+      <c r="C62" s="2">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>25</v>
+      </c>
+      <c r="B63" s="2">
+        <v>10</v>
+      </c>
+      <c r="C63" s="2">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>39</v>
+      </c>
+      <c r="B64" s="2">
+        <v>10</v>
+      </c>
+      <c r="C64" s="2">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>23</v>
+      </c>
+      <c r="B65" s="2">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>24</v>
+      </c>
+      <c r="B66" s="2">
+        <v>10</v>
+      </c>
+      <c r="C66" s="2">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>28</v>
+      </c>
+      <c r="B67" s="2">
+        <v>11</v>
+      </c>
+      <c r="C67" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>75</v>
+      </c>
+      <c r="B68" s="2">
+        <v>11</v>
+      </c>
+      <c r="C68" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>74</v>
+      </c>
+      <c r="B69" s="2">
+        <v>11</v>
+      </c>
+      <c r="C69" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>76</v>
+      </c>
+      <c r="B70" s="2">
+        <v>11</v>
+      </c>
+      <c r="C70" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>27</v>
+      </c>
+      <c r="B71" s="2">
+        <v>11</v>
+      </c>
+      <c r="C71" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>77</v>
+      </c>
+      <c r="B72" s="2">
+        <v>12</v>
+      </c>
+      <c r="C72" s="2">
+        <v>10</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>79</v>
+      </c>
+      <c r="B73" s="2">
+        <v>12</v>
+      </c>
+      <c r="C73" s="2">
+        <v>10</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>30</v>
+      </c>
+      <c r="B74" s="2">
+        <v>12</v>
+      </c>
+      <c r="C74" s="2">
+        <v>10</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>78</v>
+      </c>
+      <c r="B75" s="2">
+        <v>12</v>
+      </c>
+      <c r="C75" s="2">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>29</v>
+      </c>
+      <c r="B76" s="2">
+        <v>12</v>
+      </c>
+      <c r="C76" s="2">
+        <v>10</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>32</v>
+      </c>
+      <c r="B77" s="2">
+        <v>13</v>
+      </c>
+      <c r="C77" s="2">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>31</v>
+      </c>
+      <c r="B78" s="2">
+        <v>13</v>
+      </c>
+      <c r="C78" s="2">
+        <v>11</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>37</v>
+      </c>
+      <c r="B79" s="3">
+        <v>14</v>
+      </c>
+      <c r="C79" s="3">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>80</v>
+      </c>
+      <c r="B80" s="3">
+        <v>14</v>
+      </c>
+      <c r="C80" s="3">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>81</v>
+      </c>
+      <c r="B81" s="3">
+        <v>14</v>
+      </c>
+      <c r="C81" s="3">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>82</v>
+      </c>
+      <c r="B82" s="3">
+        <v>14</v>
+      </c>
+      <c r="C82" s="3">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>33</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B83" s="3">
         <v>14</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C83" s="3">
         <v>12</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="F83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H83" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H50">
-    <sortCondition ref="C2:C50"/>
-    <sortCondition ref="F2:F50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H88">
+    <sortCondition ref="C2:C88"/>
+    <sortCondition ref="F2:F88"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339DFBEB-52D9-4B7A-9244-6266150C28FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E9007-2DEB-41AF-85C8-0399B91934B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="219">
   <si>
     <t>id</t>
   </si>
@@ -681,6 +681,21 @@
   </si>
   <si>
     <t>Manuel Correa</t>
+  </si>
+  <si>
+    <t>Aucán Huilcamán</t>
+  </si>
+  <si>
+    <t>Luis Vivanco</t>
+  </si>
+  <si>
+    <t>César Vargas</t>
+  </si>
+  <si>
+    <t>Vicente Painel</t>
+  </si>
+  <si>
+    <t>estado</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1583,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -1580,13 +1595,13 @@
         <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1594,7 +1609,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
@@ -1606,13 +1621,13 @@
         <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -2712,7 +2727,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2">
         <v>10</v>
@@ -2724,13 +2739,13 @@
         <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -2738,7 +2753,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2">
         <v>10</v>
@@ -2750,13 +2765,13 @@
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -2764,7 +2779,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2">
         <v>10</v>
@@ -2776,13 +2791,13 @@
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -2790,103 +2805,103 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B67" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="H67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="H68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B69" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B70" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -2894,7 +2909,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B71" s="2">
         <v>11</v>
@@ -2906,65 +2921,65 @@
         <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H73" s="2">
         <v>1</v>
@@ -2972,25 +2987,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -2998,25 +3013,25 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B75" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -3024,7 +3039,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
         <v>12</v>
@@ -3036,13 +3051,13 @@
         <v>64</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -3050,77 +3065,77 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>37</v>
-      </c>
-      <c r="B79" s="3">
-        <v>14</v>
-      </c>
-      <c r="C79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
         <v>12</v>
       </c>
+      <c r="C79" s="2">
+        <v>10</v>
+      </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -3128,25 +3143,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>80</v>
-      </c>
-      <c r="B80" s="3">
-        <v>14</v>
-      </c>
-      <c r="C80" s="3">
+        <v>29</v>
+      </c>
+      <c r="B80" s="2">
         <v>12</v>
       </c>
+      <c r="C80" s="2">
+        <v>10</v>
+      </c>
       <c r="D80" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -3154,25 +3169,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>81</v>
-      </c>
-      <c r="B81" s="3">
-        <v>14</v>
-      </c>
-      <c r="C81" s="3">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="B81" s="2">
+        <v>13</v>
+      </c>
+      <c r="C81" s="2">
+        <v>11</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -3180,33 +3195,33 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>82</v>
-      </c>
-      <c r="B82" s="3">
-        <v>14</v>
-      </c>
-      <c r="C82" s="3">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="B82" s="2">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2">
+        <v>11</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B83" s="3">
         <v>14</v>
@@ -3218,15 +3233,119 @@
         <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>80</v>
+      </c>
+      <c r="B84" s="3">
+        <v>14</v>
+      </c>
+      <c r="C84" s="3">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>81</v>
+      </c>
+      <c r="B85" s="3">
+        <v>14</v>
+      </c>
+      <c r="C85" s="3">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>82</v>
+      </c>
+      <c r="B86" s="3">
+        <v>14</v>
+      </c>
+      <c r="C86" s="3">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>33</v>
+      </c>
+      <c r="B87" s="3">
+        <v>14</v>
+      </c>
+      <c r="C87" s="3">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="F87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H87" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3244,8 +3363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21764D14-6BFF-44A1-9B69-9FB3FFCCE5D4}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,7 +3396,9 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>119</v>
       </c>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E9007-2DEB-41AF-85C8-0399B91934B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF778FC7-CB9B-4A96-904E-BBB4470633FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="220">
   <si>
     <t>id</t>
   </si>
@@ -696,6 +696,9 @@
   </si>
   <si>
     <t>estado</t>
+  </si>
+  <si>
+    <t>Jorge Sepúlveda</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,7 +3198,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2">
         <v>13</v>
@@ -3207,47 +3210,47 @@
         <v>40</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>37</v>
-      </c>
-      <c r="B83" s="3">
-        <v>14</v>
-      </c>
-      <c r="C83" s="3">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="B83" s="2">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2">
+        <v>11</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B84" s="3">
         <v>14</v>
@@ -3259,13 +3262,13 @@
         <v>81</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3273,7 +3276,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85" s="3">
         <v>14</v>
@@ -3285,10 +3288,10 @@
         <v>81</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>145</v>
@@ -3299,7 +3302,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" s="3">
         <v>14</v>
@@ -3311,7 +3314,7 @@
         <v>81</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>157</v>
@@ -3325,7 +3328,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B87" s="3">
         <v>14</v>
@@ -3337,10 +3340,10 @@
         <v>81</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>145</v>
@@ -3349,10 +3352,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>33</v>
+      </c>
+      <c r="B88" s="3">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H88">
-    <sortCondition ref="C2:C88"/>
-    <sortCondition ref="F2:F88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H89">
+    <sortCondition ref="C2:C89"/>
+    <sortCondition ref="F2:F89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF778FC7-CB9B-4A96-904E-BBB4470633FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2F7963-CB9E-4E36-8EC7-ABFFFD13DE32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1077,7 +1076,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339DFBEB-52D9-4B7A-9244-6266150C28FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2F7963-CB9E-4E36-8EC7-ABFFFD13DE32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="220">
   <si>
     <t>id</t>
   </si>
@@ -681,6 +680,24 @@
   </si>
   <si>
     <t>Manuel Correa</t>
+  </si>
+  <si>
+    <t>Aucán Huilcamán</t>
+  </si>
+  <si>
+    <t>Luis Vivanco</t>
+  </si>
+  <si>
+    <t>César Vargas</t>
+  </si>
+  <si>
+    <t>Vicente Painel</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>Jorge Sepúlveda</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1585,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -1580,13 +1597,13 @@
         <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1594,7 +1611,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
@@ -1606,13 +1623,13 @@
         <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -2712,7 +2729,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2">
         <v>10</v>
@@ -2724,13 +2741,13 @@
         <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -2738,7 +2755,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2">
         <v>10</v>
@@ -2750,13 +2767,13 @@
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -2764,7 +2781,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2">
         <v>10</v>
@@ -2776,13 +2793,13 @@
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -2790,103 +2807,103 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B67" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="H67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="H68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B69" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B70" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -2894,7 +2911,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B71" s="2">
         <v>11</v>
@@ -2906,65 +2923,65 @@
         <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H73" s="2">
         <v>1</v>
@@ -2972,25 +2989,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -2998,25 +3015,25 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B75" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -3024,7 +3041,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
         <v>12</v>
@@ -3036,13 +3053,13 @@
         <v>64</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -3050,77 +3067,77 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>37</v>
-      </c>
-      <c r="B79" s="3">
-        <v>14</v>
-      </c>
-      <c r="C79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
         <v>12</v>
       </c>
+      <c r="C79" s="2">
+        <v>10</v>
+      </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -3128,25 +3145,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>80</v>
-      </c>
-      <c r="B80" s="3">
-        <v>14</v>
-      </c>
-      <c r="C80" s="3">
+        <v>29</v>
+      </c>
+      <c r="B80" s="2">
         <v>12</v>
       </c>
+      <c r="C80" s="2">
+        <v>10</v>
+      </c>
       <c r="D80" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -3154,25 +3171,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>81</v>
-      </c>
-      <c r="B81" s="3">
-        <v>14</v>
-      </c>
-      <c r="C81" s="3">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="B81" s="2">
+        <v>13</v>
+      </c>
+      <c r="C81" s="2">
+        <v>11</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -3180,19 +3197,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>82</v>
-      </c>
-      <c r="B82" s="3">
-        <v>14</v>
-      </c>
-      <c r="C82" s="3">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="B82" s="2">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2">
+        <v>11</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>157</v>
@@ -3206,34 +3223,164 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
+        <v>31</v>
+      </c>
+      <c r="B83" s="2">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2">
+        <v>11</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>37</v>
+      </c>
+      <c r="B84" s="3">
+        <v>14</v>
+      </c>
+      <c r="C84" s="3">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>80</v>
+      </c>
+      <c r="B85" s="3">
+        <v>14</v>
+      </c>
+      <c r="C85" s="3">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>81</v>
+      </c>
+      <c r="B86" s="3">
+        <v>14</v>
+      </c>
+      <c r="C86" s="3">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>82</v>
+      </c>
+      <c r="B87" s="3">
+        <v>14</v>
+      </c>
+      <c r="C87" s="3">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>33</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B88" s="3">
         <v>14</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C88" s="3">
         <v>12</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="F88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H88" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H88">
-    <sortCondition ref="C2:C88"/>
-    <sortCondition ref="F2:F88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H89">
+    <sortCondition ref="C2:C89"/>
+    <sortCondition ref="F2:F89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3244,8 +3391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21764D14-6BFF-44A1-9B69-9FB3FFCCE5D4}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,7 +3424,9 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>119</v>
       </c>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2F7963-CB9E-4E36-8EC7-ABFFFD13DE32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3525FF2C-BADE-4B79-ABF7-B672A3B89DFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="220">
   <si>
     <t>id</t>
   </si>
@@ -1073,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="F62" sqref="F62:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B69" s="2">
         <v>10</v>
@@ -2871,13 +2871,13 @@
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -2885,33 +2885,33 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B70" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C70" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2">
         <v>11</v>
@@ -2923,13 +2923,13 @@
         <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H71" s="2">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
         <v>11</v>
@@ -2949,13 +2949,13 @@
         <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H72" s="2">
         <v>1</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2">
         <v>11</v>
@@ -2975,21 +2975,21 @@
         <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B74" s="2">
         <v>11</v>
@@ -3001,13 +3001,13 @@
         <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -3015,25 +3015,25 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" s="2">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2">
         <v>12</v>
@@ -3053,21 +3053,21 @@
         <v>64</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B77" s="2">
         <v>12</v>
@@ -3079,21 +3079,21 @@
         <v>64</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="H77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2">
         <v>12</v>
@@ -3105,13 +3105,13 @@
         <v>64</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="B79" s="2">
         <v>12</v>
@@ -3131,13 +3131,13 @@
         <v>64</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -3145,25 +3145,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B80" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C80" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2">
         <v>13</v>
@@ -3183,13 +3183,13 @@
         <v>40</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B82" s="2">
         <v>13</v>
@@ -3209,47 +3209,47 @@
         <v>40</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>31</v>
-      </c>
-      <c r="B83" s="2">
-        <v>13</v>
-      </c>
-      <c r="C83" s="2">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B83" s="3">
+        <v>14</v>
+      </c>
+      <c r="C83" s="3">
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="H83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B84" s="3">
         <v>14</v>
@@ -3261,13 +3261,13 @@
         <v>81</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B85" s="3">
         <v>14</v>
@@ -3287,10 +3287,10 @@
         <v>81</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>145</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B86" s="3">
         <v>14</v>
@@ -3313,7 +3313,7 @@
         <v>81</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>157</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B87" s="3">
         <v>14</v>
@@ -3339,10 +3339,10 @@
         <v>81</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>145</v>
@@ -3351,36 +3351,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>33</v>
-      </c>
-      <c r="B88" s="3">
-        <v>14</v>
-      </c>
-      <c r="C88" s="3">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H88" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H89">
-    <sortCondition ref="C2:C89"/>
-    <sortCondition ref="F2:F89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H88">
+    <sortCondition ref="C2:C88"/>
+    <sortCondition ref="F2:F88"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3525FF2C-BADE-4B79-ABF7-B672A3B89DFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF02AE5-0AEF-4763-BD99-53373122D6CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="220">
   <si>
     <t>id</t>
   </si>
@@ -1073,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:F69"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
@@ -1623,13 +1623,13 @@
         <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
         <v>5</v>
@@ -1649,13 +1649,13 @@
         <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1663,25 +1663,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2">
         <v>6</v>
@@ -1701,10 +1701,10 @@
         <v>112</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>145</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
@@ -1727,13 +1727,13 @@
         <v>112</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2">
         <v>6</v>
@@ -1753,13 +1753,13 @@
         <v>112</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
         <v>6</v>
@@ -1779,13 +1779,13 @@
         <v>112</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1793,33 +1793,33 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2">
         <v>15</v>
@@ -1831,13 +1831,13 @@
         <v>128</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B30" s="2">
         <v>15</v>
@@ -1857,21 +1857,21 @@
         <v>128</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2">
         <v>15</v>
@@ -1883,21 +1883,21 @@
         <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
         <v>15</v>
@@ -1909,21 +1909,21 @@
         <v>128</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2">
         <v>15</v>
@@ -1935,13 +1935,13 @@
         <v>128</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2">
         <v>15</v>
@@ -1961,47 +1961,47 @@
         <v>128</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="H35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2">
         <v>7</v>
@@ -2013,13 +2013,13 @@
         <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2">
         <v>7</v>
@@ -2039,10 +2039,10 @@
         <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>145</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2">
         <v>7</v>
@@ -2065,13 +2065,13 @@
         <v>96</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2">
         <v>7</v>
@@ -2091,13 +2091,13 @@
         <v>96</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2105,25 +2105,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B40" s="2">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2">
         <v>7</v>
       </c>
-      <c r="C40" s="2">
-        <v>6</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2">
         <v>8</v>
@@ -2143,13 +2143,13 @@
         <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2">
         <v>8</v>
@@ -2169,13 +2169,13 @@
         <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2">
         <v>8</v>
@@ -2195,13 +2195,13 @@
         <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2">
         <v>8</v>
@@ -2221,13 +2221,13 @@
         <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2">
         <v>8</v>
@@ -2247,13 +2247,13 @@
         <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B46" s="2">
         <v>8</v>
@@ -2273,47 +2273,47 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="2">
-        <v>8</v>
-      </c>
-      <c r="C47" s="2">
-        <v>7</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2">
         <v>9.5</v>
@@ -2325,13 +2325,13 @@
         <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2">
         <v>9.5</v>
@@ -2351,13 +2351,13 @@
         <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2">
         <v>9.5</v>
@@ -2377,13 +2377,13 @@
         <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" s="2">
         <v>9.5</v>
@@ -2403,13 +2403,13 @@
         <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2">
         <v>9.5</v>
@@ -2429,13 +2429,13 @@
         <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B53" s="2">
         <v>9.5</v>
@@ -2455,13 +2455,13 @@
         <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2469,33 +2469,33 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B54" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B55" s="2">
         <v>9</v>
@@ -2507,13 +2507,13 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B56" s="2">
         <v>9</v>
@@ -2533,21 +2533,21 @@
         <v>49</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="H56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B57" s="2">
         <v>9</v>
@@ -2559,13 +2559,13 @@
         <v>49</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B58" s="2">
         <v>9</v>
@@ -2585,21 +2585,21 @@
         <v>49</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="H58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B59" s="2">
         <v>9</v>
@@ -2611,21 +2611,21 @@
         <v>49</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2">
         <v>9</v>
@@ -2637,13 +2637,13 @@
         <v>49</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2651,25 +2651,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B61" s="2">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2">
         <v>9</v>
       </c>
-      <c r="C61" s="2">
-        <v>8</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62" s="2">
         <v>10</v>
@@ -2689,10 +2689,10 @@
         <v>18</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>145</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2">
         <v>10</v>
@@ -2715,13 +2715,13 @@
         <v>18</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2">
         <v>10</v>
@@ -2741,13 +2741,13 @@
         <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2">
         <v>10</v>
@@ -2767,10 +2767,10 @@
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>145</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="B66" s="2">
         <v>10</v>
@@ -2793,13 +2793,13 @@
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2">
         <v>10</v>
@@ -2819,13 +2819,13 @@
         <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B68" s="2">
         <v>10</v>
@@ -2845,13 +2845,13 @@
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -2859,33 +2859,33 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B69" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C69" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2">
         <v>11</v>
@@ -2897,13 +2897,13 @@
         <v>73</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H70" s="2">
         <v>1</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2">
         <v>11</v>
@@ -2923,13 +2923,13 @@
         <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H71" s="2">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2">
         <v>11</v>
@@ -2949,21 +2949,21 @@
         <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B73" s="2">
         <v>11</v>
@@ -2975,13 +2975,13 @@
         <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -2989,25 +2989,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" s="2">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2">
         <v>12</v>
@@ -3027,21 +3027,21 @@
         <v>64</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B76" s="2">
         <v>12</v>
@@ -3053,21 +3053,21 @@
         <v>64</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="H76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2">
         <v>12</v>
@@ -3079,13 +3079,13 @@
         <v>64</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="B78" s="2">
         <v>12</v>
@@ -3105,13 +3105,13 @@
         <v>64</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -3119,25 +3119,25 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B79" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C79" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2">
         <v>13</v>
@@ -3157,13 +3157,13 @@
         <v>40</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B81" s="2">
         <v>13</v>
@@ -3183,47 +3183,47 @@
         <v>40</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>31</v>
-      </c>
-      <c r="B82" s="2">
-        <v>13</v>
-      </c>
-      <c r="C82" s="2">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B82" s="3">
+        <v>14</v>
+      </c>
+      <c r="C82" s="3">
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="H82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B83" s="3">
         <v>14</v>
@@ -3235,13 +3235,13 @@
         <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B84" s="3">
         <v>14</v>
@@ -3261,10 +3261,10 @@
         <v>81</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>145</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" s="3">
         <v>14</v>
@@ -3287,7 +3287,7 @@
         <v>81</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>157</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B86" s="3">
         <v>14</v>
@@ -3313,10 +3313,10 @@
         <v>81</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>145</v>
@@ -3325,36 +3325,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>33</v>
-      </c>
-      <c r="B87" s="3">
-        <v>14</v>
-      </c>
-      <c r="C87" s="3">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H87" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H88">
-    <sortCondition ref="C2:C88"/>
-    <sortCondition ref="F2:F88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H87">
+    <sortCondition ref="C2:C87"/>
+    <sortCondition ref="F2:F87"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF02AE5-0AEF-4763-BD99-53373122D6CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14EFE08-F4D6-4CBB-B234-CC5C8F1A7D77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="223">
   <si>
     <t>id</t>
   </si>
@@ -698,6 +698,15 @@
   </si>
   <si>
     <t>Jorge Sepúlveda</t>
+  </si>
+  <si>
+    <t>Enzo Morales</t>
+  </si>
+  <si>
+    <t>Krist Naranjo</t>
+  </si>
+  <si>
+    <t>Marco Oyanedel</t>
   </si>
 </sst>
 </file>
@@ -748,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -757,6 +766,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1073,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1129,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1128,7 +1140,7 @@
       <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1143,7 +1155,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1154,7 +1166,7 @@
       <c r="D3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1169,7 +1181,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1180,7 +1192,7 @@
       <c r="D4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>175</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1195,7 +1207,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1206,7 +1218,7 @@
       <c r="D5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1221,7 +1233,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1232,7 +1244,7 @@
       <c r="D6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1247,7 +1259,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1258,7 +1270,7 @@
       <c r="D7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>111</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1273,7 +1285,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1284,14 +1296,14 @@
       <c r="D8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>107</v>
+      <c r="E8" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1299,7 +1311,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -1310,14 +1322,14 @@
       <c r="D9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>108</v>
+      <c r="E9" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1325,25 +1337,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>104</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1351,7 +1363,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -1362,22 +1374,22 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>177</v>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -1388,22 +1400,22 @@
       <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>178</v>
+      <c r="E12" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -1414,14 +1426,14 @@
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>179</v>
+      <c r="E13" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1429,7 +1441,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -1440,14 +1452,14 @@
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
+      <c r="E14" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1455,25 +1467,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1481,7 +1493,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1492,14 +1504,14 @@
       <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>183</v>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1507,7 +1519,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1518,14 +1530,14 @@
       <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>185</v>
+      <c r="E17" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1533,7 +1545,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1544,14 +1556,14 @@
       <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>184</v>
+      <c r="E18" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1559,7 +1571,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -1570,14 +1582,14 @@
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
+      <c r="E19" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1585,25 +1597,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1611,7 +1623,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
@@ -1622,14 +1634,14 @@
       <c r="D21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>186</v>
+      <c r="E21" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1637,7 +1649,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>5</v>
@@ -1648,14 +1660,14 @@
       <c r="D22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>59</v>
+      <c r="E22" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1663,22 +1675,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>164</v>
+        <v>58</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>145</v>
@@ -1689,25 +1701,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1715,7 +1727,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
@@ -1726,14 +1738,14 @@
       <c r="D25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>167</v>
+      <c r="E25" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1741,7 +1753,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>6</v>
@@ -1752,14 +1764,14 @@
       <c r="D26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>116</v>
+      <c r="E26" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1767,7 +1779,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>6</v>
@@ -1778,14 +1790,14 @@
       <c r="D27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>160</v>
+      <c r="E27" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1793,77 +1805,77 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1871,7 +1883,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>15</v>
@@ -1882,14 +1894,14 @@
       <c r="D31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>165</v>
+      <c r="E31" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -1897,7 +1909,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>15</v>
@@ -1908,22 +1920,22 @@
       <c r="D32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>142</v>
+      <c r="E32" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>15</v>
@@ -1934,14 +1946,14 @@
       <c r="D33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>100</v>
+      <c r="E33" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1949,7 +1961,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>15</v>
@@ -1960,14 +1972,14 @@
       <c r="D34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>187</v>
+      <c r="E34" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
@@ -1975,25 +1987,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>189</v>
+        <v>128</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2001,25 +2013,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2027,33 +2039,33 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>163</v>
+        <v>128</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>7</v>
@@ -2064,14 +2076,14 @@
       <c r="D38" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>190</v>
+      <c r="E38" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2079,7 +2091,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>7</v>
@@ -2090,14 +2102,14 @@
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>98</v>
+      <c r="E39" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2105,25 +2117,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2131,25 +2143,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>193</v>
+        <v>96</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2157,25 +2169,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>191</v>
+        <v>96</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2183,7 +2195,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>8</v>
@@ -2194,14 +2206,14 @@
       <c r="D43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>195</v>
+      <c r="E43" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2209,7 +2221,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>8</v>
@@ -2220,14 +2232,14 @@
       <c r="D44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>194</v>
+      <c r="E44" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2235,7 +2247,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>8</v>
@@ -2246,14 +2258,14 @@
       <c r="D45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>192</v>
+      <c r="E45" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2261,7 +2273,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>8</v>
@@ -2272,40 +2284,40 @@
       <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>87</v>
+      <c r="E46" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>198</v>
+        <v>84</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2313,25 +2325,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>197</v>
+        <v>84</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2339,33 +2351,33 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>199</v>
+        <v>84</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="H49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>9.5</v>
@@ -2376,14 +2388,14 @@
       <c r="D50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>200</v>
+      <c r="E50" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2391,7 +2403,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>9.5</v>
@@ -2402,14 +2414,14 @@
       <c r="D51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>201</v>
+      <c r="E51" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2417,7 +2429,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>9.5</v>
@@ -2428,14 +2440,14 @@
       <c r="D52" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>202</v>
+      <c r="E52" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2443,7 +2455,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>9.5</v>
@@ -2454,14 +2466,14 @@
       <c r="D53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>95</v>
+      <c r="E53" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2469,77 +2481,77 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C54" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>148</v>
+        <v>92</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="H54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C55" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>149</v>
+        <v>92</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C56" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>206</v>
+        <v>92</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2547,7 +2559,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>9</v>
@@ -2558,22 +2570,22 @@
       <c r="D57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>147</v>
+      <c r="E57" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="H57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>9</v>
@@ -2584,14 +2596,14 @@
       <c r="D58" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>150</v>
+      <c r="E58" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
@@ -2599,7 +2611,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>9</v>
@@ -2610,14 +2622,14 @@
       <c r="D59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>50</v>
+      <c r="E59" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2625,7 +2637,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>9</v>
@@ -2636,14 +2648,14 @@
       <c r="D60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>207</v>
+      <c r="E60" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2651,51 +2663,51 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="2">
-        <v>10</v>
-      </c>
-      <c r="C61" s="2">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -2703,25 +2715,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>215</v>
+        <v>49</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -2729,7 +2741,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>10</v>
@@ -2740,11 +2752,11 @@
       <c r="D64" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>214</v>
+      <c r="E64" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>145</v>
@@ -2755,7 +2767,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>10</v>
@@ -2766,11 +2778,11 @@
       <c r="D65" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>216</v>
+      <c r="E65" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>145</v>
@@ -2781,7 +2793,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>10</v>
@@ -2792,14 +2804,14 @@
       <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>152</v>
+      <c r="E66" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -2807,7 +2819,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>10</v>
@@ -2818,14 +2830,14 @@
       <c r="D67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>217</v>
+      <c r="E67" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -2833,7 +2845,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>10</v>
@@ -2844,14 +2856,14 @@
       <c r="D68" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>20</v>
+      <c r="E68" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -2859,85 +2871,85 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>209</v>
+        <v>18</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="H70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>208</v>
+        <v>18</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="H71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>11</v>
@@ -2948,22 +2960,22 @@
       <c r="D72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>210</v>
+      <c r="E72" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>11</v>
@@ -2974,92 +2986,92 @@
       <c r="D73" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>79</v>
+      <c r="E73" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="H73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>170</v>
+        <v>73</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="H74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>172</v>
+        <v>73</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -3067,7 +3079,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>12</v>
@@ -3078,14 +3090,14 @@
       <c r="D77" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>171</v>
+      <c r="E77" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -3093,7 +3105,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>12</v>
@@ -3104,40 +3116,40 @@
       <c r="D78" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>65</v>
+      <c r="E78" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -3145,25 +3157,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>219</v>
+        <v>64</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -3171,51 +3183,51 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C81" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>37</v>
-      </c>
-      <c r="B82" s="3">
-        <v>14</v>
-      </c>
-      <c r="C82" s="3">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2">
+        <v>11</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>153</v>
+        <v>40</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="H82" s="2">
         <v>0</v>
@@ -3223,22 +3235,22 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>80</v>
-      </c>
-      <c r="B83" s="3">
-        <v>14</v>
-      </c>
-      <c r="C83" s="3">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2">
+        <v>11</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>211</v>
+        <v>40</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>145</v>
@@ -3249,33 +3261,33 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>81</v>
-      </c>
-      <c r="B84" s="3">
-        <v>14</v>
-      </c>
-      <c r="C84" s="3">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>13</v>
+      </c>
+      <c r="C84" s="2">
+        <v>11</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>212</v>
+        <v>40</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H84" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3">
         <v>14</v>
@@ -3286,14 +3298,14 @@
       <c r="D85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>213</v>
+      <c r="E85" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -3301,7 +3313,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3">
         <v>14</v>
@@ -3312,11 +3324,11 @@
       <c r="D86" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>83</v>
+      <c r="E86" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>145</v>
@@ -3325,10 +3337,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>14</v>
+      </c>
+      <c r="C87" s="3">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>14</v>
+      </c>
+      <c r="C89" s="3">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H87">
-    <sortCondition ref="C2:C87"/>
-    <sortCondition ref="F2:F87"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H89">
+    <sortCondition ref="C2:C89"/>
+    <sortCondition ref="F2:F89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14EFE08-F4D6-4CBB-B234-CC5C8F1A7D77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A65500-5043-420A-B8D4-0D7779959E74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="224">
   <si>
     <t>id</t>
   </si>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t>Marco Oyanedel</t>
+  </si>
+  <si>
+    <t>Ricardo Martínez</t>
   </si>
 </sst>
 </file>
@@ -1085,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A2" sqref="A2:A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,22 +2071,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2103,13 +2106,13 @@
         <v>96</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2129,10 +2132,10 @@
         <v>96</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>145</v>
@@ -2155,13 +2158,13 @@
         <v>96</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2181,13 +2184,13 @@
         <v>96</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2198,22 +2201,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2233,13 +2236,13 @@
         <v>84</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2259,13 +2262,13 @@
         <v>84</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2285,13 +2288,13 @@
         <v>84</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2311,13 +2314,13 @@
         <v>84</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2337,13 +2340,13 @@
         <v>84</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2363,16 +2366,16 @@
         <v>84</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="H49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2380,25 +2383,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C50" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2415,13 +2418,13 @@
         <v>92</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2441,13 +2444,13 @@
         <v>92</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2467,13 +2470,13 @@
         <v>92</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2493,13 +2496,13 @@
         <v>92</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2519,13 +2522,13 @@
         <v>92</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2545,13 +2548,13 @@
         <v>92</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2562,25 +2565,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C57" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2597,13 +2600,13 @@
         <v>49</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
@@ -2623,16 +2626,16 @@
         <v>49</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2649,13 +2652,13 @@
         <v>49</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2675,16 +2678,16 @@
         <v>49</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="H61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2701,16 +2704,16 @@
         <v>49</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2727,13 +2730,13 @@
         <v>49</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -2744,22 +2747,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -2779,10 +2782,10 @@
         <v>18</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>145</v>
@@ -2805,13 +2808,13 @@
         <v>18</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -2831,13 +2834,13 @@
         <v>18</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -2857,10 +2860,10 @@
         <v>18</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>145</v>
@@ -2883,13 +2886,13 @@
         <v>18</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -2909,13 +2912,13 @@
         <v>18</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -2935,13 +2938,13 @@
         <v>18</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -2952,25 +2955,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2987,13 +2990,13 @@
         <v>73</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="H73" s="2">
         <v>1</v>
@@ -3013,13 +3016,13 @@
         <v>73</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H74" s="2">
         <v>1</v>
@@ -3039,16 +3042,16 @@
         <v>73</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3065,13 +3068,13 @@
         <v>73</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -3082,22 +3085,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -3117,16 +3120,16 @@
         <v>64</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="H78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3143,16 +3146,16 @@
         <v>64</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="H79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3169,13 +3172,13 @@
         <v>64</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -3195,13 +3198,13 @@
         <v>64</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -3212,22 +3215,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C82" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H82" s="2">
         <v>0</v>
@@ -3247,13 +3250,13 @@
         <v>40</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -3273,42 +3276,42 @@
         <v>40</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
-        <v>14</v>
-      </c>
-      <c r="C85" s="3">
-        <v>12</v>
+      <c r="B85" s="2">
+        <v>13</v>
+      </c>
+      <c r="C85" s="2">
+        <v>11</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3325,13 +3328,13 @@
         <v>81</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -3351,10 +3354,10 @@
         <v>81</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>145</v>
@@ -3377,7 +3380,7 @@
         <v>81</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>157</v>
@@ -3403,10 +3406,10 @@
         <v>81</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>145</v>
@@ -3415,10 +3418,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>14</v>
+      </c>
+      <c r="C90" s="3">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H89">
-    <sortCondition ref="C2:C89"/>
-    <sortCondition ref="F2:F89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H90">
+    <sortCondition ref="C2:C90"/>
+    <sortCondition ref="F2:F90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A65500-5043-420A-B8D4-0D7779959E74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C21C8-F9B6-48FE-82B9-30205D25133B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="225">
   <si>
     <t>id</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>Ricardo Martínez</t>
+  </si>
+  <si>
+    <t>Pedro Neira</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A90"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,22 +2776,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -2808,10 +2811,10 @@
         <v>18</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>145</v>
@@ -2834,13 +2837,13 @@
         <v>18</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -2860,13 +2863,13 @@
         <v>18</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -2886,10 +2889,10 @@
         <v>18</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>145</v>
@@ -2912,13 +2915,13 @@
         <v>18</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -2938,13 +2941,13 @@
         <v>18</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -2964,13 +2967,13 @@
         <v>18</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -2981,25 +2984,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3016,13 +3019,13 @@
         <v>73</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="H74" s="2">
         <v>1</v>
@@ -3042,13 +3045,13 @@
         <v>73</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H75" s="2">
         <v>1</v>
@@ -3068,16 +3071,16 @@
         <v>73</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3094,13 +3097,13 @@
         <v>73</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -3111,22 +3114,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -3146,16 +3149,16 @@
         <v>64</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="H79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3172,16 +3175,16 @@
         <v>64</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="H80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3198,13 +3201,13 @@
         <v>64</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -3224,13 +3227,13 @@
         <v>64</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H82" s="2">
         <v>0</v>
@@ -3241,22 +3244,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -3276,13 +3279,13 @@
         <v>40</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3302,42 +3305,42 @@
         <v>40</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
-        <v>14</v>
-      </c>
-      <c r="C86" s="3">
-        <v>12</v>
+      <c r="B86" s="2">
+        <v>13</v>
+      </c>
+      <c r="C86" s="2">
+        <v>11</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3354,13 +3357,13 @@
         <v>81</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -3380,10 +3383,10 @@
         <v>81</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>145</v>
@@ -3406,7 +3409,7 @@
         <v>81</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>157</v>
@@ -3432,10 +3435,10 @@
         <v>81</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>145</v>
@@ -3444,10 +3447,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>14</v>
+      </c>
+      <c r="C91" s="3">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H90">
-    <sortCondition ref="C2:C90"/>
-    <sortCondition ref="F2:F90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H91">
+    <sortCondition ref="C2:C91"/>
+    <sortCondition ref="F2:F91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF02AE5-0AEF-4763-BD99-53373122D6CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C21C8-F9B6-48FE-82B9-30205D25133B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="225">
   <si>
     <t>id</t>
   </si>
@@ -698,6 +698,21 @@
   </si>
   <si>
     <t>Jorge Sepúlveda</t>
+  </si>
+  <si>
+    <t>Enzo Morales</t>
+  </si>
+  <si>
+    <t>Krist Naranjo</t>
+  </si>
+  <si>
+    <t>Marco Oyanedel</t>
+  </si>
+  <si>
+    <t>Ricardo Martínez</t>
+  </si>
+  <si>
+    <t>Pedro Neira</t>
   </si>
 </sst>
 </file>
@@ -748,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -757,6 +772,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1073,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1135,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1128,7 +1146,7 @@
       <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1143,7 +1161,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1154,7 +1172,7 @@
       <c r="D3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1169,7 +1187,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1180,7 +1198,7 @@
       <c r="D4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>175</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1195,7 +1213,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1206,7 +1224,7 @@
       <c r="D5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1221,7 +1239,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1232,7 +1250,7 @@
       <c r="D6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1247,7 +1265,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1258,7 +1276,7 @@
       <c r="D7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>111</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1273,7 +1291,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1284,14 +1302,14 @@
       <c r="D8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>107</v>
+      <c r="E8" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1299,7 +1317,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -1310,14 +1328,14 @@
       <c r="D9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>108</v>
+      <c r="E9" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1325,25 +1343,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>104</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1351,7 +1369,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -1362,22 +1380,22 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>177</v>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -1388,22 +1406,22 @@
       <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>178</v>
+      <c r="E12" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -1414,14 +1432,14 @@
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>179</v>
+      <c r="E13" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1429,7 +1447,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -1440,14 +1458,14 @@
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
+      <c r="E14" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1455,25 +1473,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1481,7 +1499,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1492,14 +1510,14 @@
       <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>183</v>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1507,7 +1525,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1518,14 +1536,14 @@
       <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>185</v>
+      <c r="E17" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1533,7 +1551,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1544,14 +1562,14 @@
       <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>184</v>
+      <c r="E18" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1559,7 +1577,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -1570,14 +1588,14 @@
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
+      <c r="E19" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1585,25 +1603,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1611,7 +1629,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
@@ -1622,14 +1640,14 @@
       <c r="D21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>186</v>
+      <c r="E21" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1637,7 +1655,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>5</v>
@@ -1648,14 +1666,14 @@
       <c r="D22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>59</v>
+      <c r="E22" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1663,22 +1681,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>164</v>
+        <v>58</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>145</v>
@@ -1689,25 +1707,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1715,7 +1733,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
@@ -1726,14 +1744,14 @@
       <c r="D25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>167</v>
+      <c r="E25" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1741,7 +1759,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>6</v>
@@ -1752,14 +1770,14 @@
       <c r="D26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>116</v>
+      <c r="E26" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1767,7 +1785,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>6</v>
@@ -1778,14 +1796,14 @@
       <c r="D27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>160</v>
+      <c r="E27" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1793,77 +1811,77 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1871,7 +1889,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>15</v>
@@ -1882,14 +1900,14 @@
       <c r="D31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>165</v>
+      <c r="E31" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -1897,7 +1915,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>15</v>
@@ -1908,22 +1926,22 @@
       <c r="D32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>142</v>
+      <c r="E32" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>15</v>
@@ -1934,14 +1952,14 @@
       <c r="D33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>100</v>
+      <c r="E33" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1949,7 +1967,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>15</v>
@@ -1960,14 +1978,14 @@
       <c r="D34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>187</v>
+      <c r="E34" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
@@ -1975,25 +1993,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>189</v>
+        <v>128</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2001,25 +2019,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2027,45 +2045,45 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>163</v>
+        <v>128</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>190</v>
+        <v>128</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>156</v>
@@ -2079,7 +2097,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>7</v>
@@ -2090,14 +2108,14 @@
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>98</v>
+      <c r="E39" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2105,25 +2123,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2131,25 +2149,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>193</v>
+        <v>96</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2157,25 +2175,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>191</v>
+        <v>96</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2183,25 +2201,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>195</v>
+        <v>96</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2209,7 +2227,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>8</v>
@@ -2220,14 +2238,14 @@
       <c r="D44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>194</v>
+      <c r="E44" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2235,7 +2253,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>8</v>
@@ -2246,14 +2264,14 @@
       <c r="D45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>192</v>
+      <c r="E45" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2261,7 +2279,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>8</v>
@@ -2272,40 +2290,40 @@
       <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>87</v>
+      <c r="E46" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>198</v>
+        <v>84</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2313,25 +2331,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>197</v>
+        <v>84</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2339,25 +2357,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>199</v>
+        <v>84</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2365,33 +2383,33 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C50" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>200</v>
+        <v>84</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="H50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>9.5</v>
@@ -2402,14 +2420,14 @@
       <c r="D51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>201</v>
+      <c r="E51" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2417,7 +2435,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>9.5</v>
@@ -2428,11 +2446,11 @@
       <c r="D52" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>202</v>
+      <c r="E52" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>145</v>
@@ -2443,7 +2461,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>9.5</v>
@@ -2454,14 +2472,14 @@
       <c r="D53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>95</v>
+      <c r="E53" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2469,77 +2487,77 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C54" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>148</v>
+        <v>92</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C55" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>149</v>
+        <v>92</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="H55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C56" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>206</v>
+        <v>92</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2547,25 +2565,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="C57" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>147</v>
+        <v>92</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2573,7 +2591,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>9</v>
@@ -2584,14 +2602,14 @@
       <c r="D58" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>150</v>
+      <c r="E58" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
@@ -2599,7 +2617,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>9</v>
@@ -2610,22 +2628,22 @@
       <c r="D59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>50</v>
+      <c r="E59" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>9</v>
@@ -2636,14 +2654,14 @@
       <c r="D60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>207</v>
+      <c r="E60" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2651,22 +2669,22 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>136</v>
+        <v>49</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>145</v>
@@ -2677,51 +2695,51 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>215</v>
+        <v>49</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -2729,25 +2747,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>214</v>
+        <v>49</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -2755,25 +2773,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>216</v>
+        <v>49</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -2781,7 +2799,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>10</v>
@@ -2792,14 +2810,14 @@
       <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>152</v>
+      <c r="E66" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -2807,7 +2825,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>10</v>
@@ -2818,14 +2836,14 @@
       <c r="D67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>217</v>
+      <c r="E67" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -2833,7 +2851,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>10</v>
@@ -2844,14 +2862,14 @@
       <c r="D68" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>20</v>
+      <c r="E68" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -2859,103 +2877,103 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>209</v>
+        <v>18</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>208</v>
+        <v>18</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="H71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>210</v>
+        <v>18</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -2963,25 +2981,25 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>79</v>
+        <v>18</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -2989,19 +3007,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>170</v>
+        <v>73</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>8</v>
@@ -3010,24 +3028,24 @@
         <v>15</v>
       </c>
       <c r="H74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>172</v>
+        <v>73</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>173</v>
@@ -3041,51 +3059,51 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="H76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>171</v>
+        <v>73</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -3093,25 +3111,25 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -3119,19 +3137,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>8</v>
@@ -3145,77 +3163,77 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>219</v>
+        <v>64</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C81" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>37</v>
-      </c>
-      <c r="B82" s="3">
-        <v>14</v>
-      </c>
-      <c r="C82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
         <v>12</v>
       </c>
+      <c r="C82" s="2">
+        <v>10</v>
+      </c>
       <c r="D82" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>153</v>
+        <v>64</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="H82" s="2">
         <v>0</v>
@@ -3223,25 +3241,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>80</v>
-      </c>
-      <c r="B83" s="3">
-        <v>14</v>
-      </c>
-      <c r="C83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
         <v>12</v>
       </c>
+      <c r="C83" s="2">
+        <v>10</v>
+      </c>
       <c r="D83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>211</v>
+        <v>64</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -3249,25 +3267,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>81</v>
-      </c>
-      <c r="B84" s="3">
-        <v>14</v>
-      </c>
-      <c r="C84" s="3">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>13</v>
+      </c>
+      <c r="C84" s="2">
+        <v>11</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>212</v>
+        <v>40</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3275,19 +3293,19 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>82</v>
-      </c>
-      <c r="B85" s="3">
-        <v>14</v>
-      </c>
-      <c r="C85" s="3">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>13</v>
+      </c>
+      <c r="C85" s="2">
+        <v>11</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>213</v>
+        <v>40</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>157</v>
@@ -3301,34 +3319,164 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>33</v>
-      </c>
-      <c r="B86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>13</v>
+      </c>
+      <c r="C86" s="2">
+        <v>11</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
         <v>14</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C87" s="3">
         <v>12</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E87" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>14</v>
+      </c>
+      <c r="C89" s="3">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>14</v>
+      </c>
+      <c r="C90" s="3">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>14</v>
+      </c>
+      <c r="C91" s="3">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H91" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H87">
-    <sortCondition ref="C2:C87"/>
-    <sortCondition ref="F2:F87"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H91">
+    <sortCondition ref="C2:C91"/>
+    <sortCondition ref="F2:F91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C21C8-F9B6-48FE-82B9-30205D25133B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF7B6E1-6BCE-43DF-BE45-3AA3BEB9A107}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">todos!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="264">
   <si>
     <t>id</t>
   </si>
@@ -713,6 +713,123 @@
   </si>
   <si>
     <t>Pedro Neira</t>
+  </si>
+  <si>
+    <t>XX200</t>
+  </si>
+  <si>
+    <t>YN201</t>
+  </si>
+  <si>
+    <t>XX201</t>
+  </si>
+  <si>
+    <t>ZV203</t>
+  </si>
+  <si>
+    <t>XS200</t>
+  </si>
+  <si>
+    <t>YN202</t>
+  </si>
+  <si>
+    <t>ZX204</t>
+  </si>
+  <si>
+    <t>ZR203</t>
+  </si>
+  <si>
+    <t>ZV202</t>
+  </si>
+  <si>
+    <t>ZX203</t>
+  </si>
+  <si>
+    <t>XZ201</t>
+  </si>
+  <si>
+    <t>XX202</t>
+  </si>
+  <si>
+    <t>XS201</t>
+  </si>
+  <si>
+    <t>YA203</t>
+  </si>
+  <si>
+    <t>U200</t>
+  </si>
+  <si>
+    <t>YN204</t>
+  </si>
+  <si>
+    <t>ZB205</t>
+  </si>
+  <si>
+    <t>YA204</t>
+  </si>
+  <si>
+    <t>XZ203</t>
+  </si>
+  <si>
+    <t>XO200</t>
+  </si>
+  <si>
+    <t>YN205</t>
+  </si>
+  <si>
+    <t>ZB206</t>
+  </si>
+  <si>
+    <t>ZX207</t>
+  </si>
+  <si>
+    <t>ZV204</t>
+  </si>
+  <si>
+    <t>YA202</t>
+  </si>
+  <si>
+    <t>ZX205</t>
+  </si>
+  <si>
+    <t>YN203</t>
+  </si>
+  <si>
+    <t>XX203</t>
+  </si>
+  <si>
+    <t>XZ204</t>
+  </si>
+  <si>
+    <t>XS202</t>
+  </si>
+  <si>
+    <t>YC205</t>
+  </si>
+  <si>
+    <t>XO201</t>
+  </si>
+  <si>
+    <t>YN206</t>
+  </si>
+  <si>
+    <t>ZV206</t>
+  </si>
+  <si>
+    <t>XZ202</t>
+  </si>
+  <si>
+    <t>WG201</t>
+  </si>
+  <si>
+    <t>YA201</t>
+  </si>
+  <si>
+    <t>ZX202</t>
+  </si>
+  <si>
+    <t>n_papeleta</t>
   </si>
 </sst>
 </file>
@@ -1091,23 +1208,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75271AE4-F8FB-4C1B-853C-165270228259}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="16.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,19 +1239,22 @@
         <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1146,20 +1267,23 @@
       <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1172,20 +1296,23 @@
       <c r="D3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2">
+        <v>202</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1198,20 +1325,23 @@
       <c r="D4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2">
+        <v>203</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1224,20 +1354,23 @@
       <c r="D5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2">
+        <v>204</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1250,20 +1383,23 @@
       <c r="D6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1276,20 +1412,23 @@
       <c r="D7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1302,20 +1441,23 @@
       <c r="D8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1328,20 +1470,23 @@
       <c r="D9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1354,20 +1499,23 @@
       <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1380,20 +1528,23 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1406,20 +1557,23 @@
       <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1432,20 +1586,23 @@
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1458,20 +1615,23 @@
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1484,20 +1644,23 @@
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1510,20 +1673,23 @@
       <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1536,20 +1702,23 @@
       <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1562,20 +1731,23 @@
       <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2">
+        <v>204</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1588,20 +1760,23 @@
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1614,20 +1789,23 @@
       <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1640,20 +1818,23 @@
       <c r="D21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1666,20 +1847,23 @@
       <c r="D22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1692,20 +1876,23 @@
       <c r="D23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1718,20 +1905,23 @@
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1744,20 +1934,23 @@
       <c r="D25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1770,20 +1963,23 @@
       <c r="D26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1796,20 +1992,23 @@
       <c r="D27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1822,20 +2021,23 @@
       <c r="D28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1848,20 +2050,23 @@
       <c r="D29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1874,20 +2079,23 @@
       <c r="D30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1900,20 +2108,23 @@
       <c r="D31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1926,20 +2137,23 @@
       <c r="D32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1952,20 +2166,23 @@
       <c r="D33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1978,22 +2195,25 @@
       <c r="D34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
         <v>15</v>
@@ -2004,22 +2224,25 @@
       <c r="D35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>158</v>
+      <c r="E35" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>15</v>
@@ -2030,22 +2253,25 @@
       <c r="D36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>5</v>
+      <c r="E36" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>15</v>
@@ -2056,22 +2282,25 @@
       <c r="D37" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>161</v>
+      <c r="E37" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>15</v>
@@ -2082,20 +2311,23 @@
       <c r="D38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>156</v>
+      <c r="E38" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2108,20 +2340,23 @@
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2134,20 +2369,23 @@
       <c r="D40" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2160,20 +2398,23 @@
       <c r="D41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2">
+        <v>204</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2186,20 +2427,23 @@
       <c r="D42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2212,20 +2456,23 @@
       <c r="D43" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2238,20 +2485,23 @@
       <c r="D44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2264,20 +2514,23 @@
       <c r="D45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2290,20 +2543,23 @@
       <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2316,20 +2572,23 @@
       <c r="D47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="2">
+        <v>206</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2342,20 +2601,23 @@
       <c r="D48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2368,20 +2630,23 @@
       <c r="D49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2394,20 +2659,23 @@
       <c r="D50" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2420,20 +2688,23 @@
       <c r="D51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2446,20 +2717,23 @@
       <c r="D52" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2472,20 +2746,23 @@
       <c r="D53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2498,20 +2775,23 @@
       <c r="D54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2524,20 +2804,23 @@
       <c r="D55" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2550,20 +2833,23 @@
       <c r="D56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2576,20 +2862,23 @@
       <c r="D57" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2602,20 +2891,23 @@
       <c r="D58" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="2">
+      <c r="I58" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2628,22 +2920,25 @@
       <c r="D59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H59" s="2">
+      <c r="I59" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2">
         <v>9</v>
@@ -2654,22 +2949,25 @@
       <c r="D60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>203</v>
+      <c r="E60" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>9</v>
@@ -2680,22 +2978,25 @@
       <c r="D61" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>157</v>
+      <c r="E61" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>9</v>
@@ -2706,22 +3007,25 @@
       <c r="D62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>156</v>
+      <c r="E62" s="2">
+        <v>207</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>9</v>
@@ -2732,22 +3036,25 @@
       <c r="D63" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>5</v>
+      <c r="E63" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>9</v>
@@ -2758,22 +3065,25 @@
       <c r="D64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>161</v>
+      <c r="E64" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>9</v>
@@ -2784,20 +3094,23 @@
       <c r="D65" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>196</v>
+      <c r="E65" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2810,20 +3123,23 @@
       <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2836,20 +3152,23 @@
       <c r="D67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2862,20 +3181,23 @@
       <c r="D68" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2888,20 +3210,23 @@
       <c r="D69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2914,20 +3239,23 @@
       <c r="D70" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2940,20 +3268,23 @@
       <c r="D71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2966,20 +3297,23 @@
       <c r="D72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2992,20 +3326,23 @@
       <c r="D73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H73" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3018,20 +3355,23 @@
       <c r="D74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="2">
+      <c r="I74" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3044,20 +3384,23 @@
       <c r="D75" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H75" s="2">
+      <c r="I75" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3070,20 +3413,23 @@
       <c r="D76" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H76" s="2">
+      <c r="I76" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3096,20 +3442,23 @@
       <c r="D77" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="2">
+        <v>204</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H77" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3122,20 +3471,23 @@
       <c r="D78" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3148,20 +3500,23 @@
       <c r="D79" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3174,20 +3529,23 @@
       <c r="D80" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3200,20 +3558,23 @@
       <c r="D81" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H81" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3226,20 +3587,23 @@
       <c r="D82" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H82" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3252,20 +3616,23 @@
       <c r="D83" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3278,20 +3645,23 @@
       <c r="D84" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -3304,20 +3674,23 @@
       <c r="D85" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="2">
+        <v>202</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -3330,20 +3703,23 @@
       <c r="D86" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H86" s="2">
+      <c r="I86" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -3356,20 +3732,23 @@
       <c r="D87" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -3382,20 +3761,23 @@
       <c r="D88" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H88" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -3408,20 +3790,23 @@
       <c r="D89" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="2">
+        <v>203</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -3434,20 +3819,23 @@
       <c r="D90" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="2">
+        <v>204</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -3460,23 +3848,27 @@
       <c r="D91" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H91" s="2">
+      <c r="I91" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H91">
-    <sortCondition ref="C2:C91"/>
-    <sortCondition ref="F2:F91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I92">
+    <sortCondition ref="C2:C92"/>
+    <sortCondition ref="G2:G92"/>
+    <sortCondition ref="E2:E92"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/gores 2021/GORES2021.xlsx
+++ b/gores 2021/GORES2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\gores 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF7B6E1-6BCE-43DF-BE45-3AA3BEB9A107}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF382B1D-E0B1-4962-B93E-412BA5F00901}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A5E29-6811-418C-AF29-FB5C121C96E5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="262">
   <si>
     <t>id</t>
   </si>
@@ -472,9 +472,6 @@
     <t>Catalina Parot</t>
   </si>
   <si>
-    <t>EVO-IND</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
@@ -536,9 +533,6 @@
   </si>
   <si>
     <t>Nathalie Joignant</t>
-  </si>
-  <si>
-    <t>Partido Ecologista Verde</t>
   </si>
   <si>
     <t>Ricardo Georges</t>
@@ -1211,7 +1205,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1233,7 @@
         <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1268,16 +1262,16 @@
         <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -1300,13 +1294,13 @@
         <v>202</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -1329,13 +1323,13 @@
         <v>203</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1358,13 +1352,13 @@
         <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1384,7 +1378,7 @@
         <v>127</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -1413,7 +1407,7 @@
         <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>111</v>
@@ -1442,16 +1436,16 @@
         <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -1471,7 +1465,7 @@
         <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>107</v>
@@ -1480,7 +1474,7 @@
         <v>70</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -1500,7 +1494,7 @@
         <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>108</v>
@@ -1509,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -1529,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -1558,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>70</v>
@@ -1587,16 +1581,16 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -1616,16 +1610,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -1645,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>13</v>
@@ -1654,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -1674,7 +1668,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>38</v>
@@ -1703,13 +1697,13 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>131</v>
@@ -1735,13 +1729,13 @@
         <v>204</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -1761,16 +1755,16 @@
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -1790,7 +1784,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>34</v>
@@ -1799,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -1819,7 +1813,7 @@
         <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>63</v>
@@ -1848,13 +1842,13 @@
         <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>131</v>
@@ -1877,16 +1871,16 @@
         <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -1906,7 +1900,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>59</v>
@@ -1935,16 +1929,16 @@
         <v>112</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -1964,7 +1958,7 @@
         <v>112</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>117</v>
@@ -1973,7 +1967,7 @@
         <v>70</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -1993,13 +1987,13 @@
         <v>112</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>139</v>
@@ -2022,16 +2016,16 @@
         <v>112</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -2051,7 +2045,7 @@
         <v>112</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>116</v>
@@ -2080,16 +2074,16 @@
         <v>112</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -2109,7 +2103,7 @@
         <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>143</v>
@@ -2118,7 +2112,7 @@
         <v>8</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
@@ -2126,7 +2120,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
         <v>15</v>
@@ -2138,16 +2132,16 @@
         <v>128</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
@@ -2155,7 +2149,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>15</v>
@@ -2167,24 +2161,24 @@
         <v>128</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>15</v>
@@ -2196,19 +2190,19 @@
         <v>128</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="I34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2225,16 +2219,16 @@
         <v>128</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -2254,16 +2248,16 @@
         <v>128</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -2283,7 +2277,7 @@
         <v>128</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>100</v>
@@ -2312,16 +2306,16 @@
         <v>128</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
@@ -2341,10 +2335,10 @@
         <v>96</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
@@ -2370,16 +2364,16 @@
         <v>96</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -2402,13 +2396,13 @@
         <v>204</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -2428,16 +2422,16 @@
         <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
@@ -2457,7 +2451,7 @@
         <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>98</v>
@@ -2486,7 +2480,7 @@
         <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>90</v>
@@ -2515,13 +2509,13 @@
         <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>131</v>
@@ -2544,13 +2538,13 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>139</v>
@@ -2576,13 +2570,13 @@
         <v>206</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
@@ -2602,16 +2596,16 @@
         <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
@@ -2631,16 +2625,16 @@
         <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -2660,7 +2654,7 @@
         <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>87</v>
@@ -2689,10 +2683,10 @@
         <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>8</v>
@@ -2718,16 +2712,16 @@
         <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
@@ -2747,10 +2741,10 @@
         <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>70</v>
@@ -2776,16 +2770,16 @@
         <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I54" s="2">
         <v>0</v>
@@ -2805,16 +2799,16 @@
         <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I55" s="2">
         <v>0</v>
@@ -2834,16 +2828,16 @@
         <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I56" s="2">
         <v>0</v>
@@ -2863,7 +2857,7 @@
         <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>95</v>
@@ -2892,10 +2886,10 @@
         <v>49</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>8</v>
@@ -2921,13 +2915,13 @@
         <v>49</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>131</v>
@@ -2938,7 +2932,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2">
         <v>9</v>
@@ -2950,24 +2944,24 @@
         <v>49</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="I60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B61" s="2">
         <v>9</v>
@@ -2979,16 +2973,16 @@
         <v>49</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
@@ -2996,7 +2990,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="2">
         <v>9</v>
@@ -3007,17 +3001,17 @@
       <c r="D62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E62" s="2">
-        <v>207</v>
+      <c r="E62" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I62" s="2">
         <v>0</v>
@@ -3025,7 +3019,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2">
         <v>9</v>
@@ -3036,20 +3030,20 @@
       <c r="D63" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>262</v>
+      <c r="E63" s="2">
+        <v>207</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>156</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3066,7 +3060,7 @@
         <v>49</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>50</v>
@@ -3095,16 +3089,16 @@
         <v>49</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="I65" s="2">
         <v>0</v>
@@ -3124,7 +3118,7 @@
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>136</v>
@@ -3133,7 +3127,7 @@
         <v>8</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
@@ -3153,7 +3147,7 @@
         <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>29</v>
@@ -3162,7 +3156,7 @@
         <v>141</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I67" s="2">
         <v>0</v>
@@ -3182,13 +3176,13 @@
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>139</v>
@@ -3211,16 +3205,16 @@
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I69" s="2">
         <v>0</v>
@@ -3240,16 +3234,16 @@
         <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I70" s="2">
         <v>0</v>
@@ -3269,16 +3263,16 @@
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
@@ -3298,16 +3292,16 @@
         <v>18</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I72" s="2">
         <v>0</v>
@@ -3327,7 +3321,7 @@
         <v>18</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>20</v>
@@ -3356,7 +3350,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>80</v>
@@ -3385,13 +3379,13 @@
         <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>131</v>
@@ -3414,13 +3408,13 @@
         <v>73</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>139</v>
@@ -3446,13 +3440,13 @@
         <v>204</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I77" s="2">
         <v>0</v>
@@ -3472,7 +3466,7 @@
         <v>73</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>79</v>
@@ -3501,10 +3495,10 @@
         <v>64</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>8</v>
@@ -3530,13 +3524,13 @@
         <v>64</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>131</v>
@@ -3547,7 +3541,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2">
         <v>12</v>
@@ -3559,16 +3553,16 @@
         <v>64</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I81" s="2">
         <v>0</v>
@@ -3576,7 +3570,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <v>12</v>
@@ -3588,16 +3582,16 @@
         <v>64</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
@@ -3617,7 +3611,7 @@
         <v>64</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>65</v>
@@ -3646,7 +3640,7 @@
         <v>40</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>47</v>
@@ -3678,13 +3672,13 @@
         <v>202</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I85" s="2">
         <v>0</v>
@@ -3704,7 +3698,7 @@
         <v>40</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>46</v>
@@ -3733,16 +3727,16 @@
         <v>81</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F87" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="I87" s="2">
         <v>0</v>
@@ -3762,16 +3756,16 @@
         <v>81</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I88" s="2">
         <v>0</v>
@@ -3794,13 +3788,13 @@
         <v>203</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I89" s="2">
         <v>0</v>
@@ -3823,13 +3817,13 @@
         <v>204</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I90" s="2">
         <v>0</v>
@@ -3849,7 +3843,7 @@
         <v>81</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>83</v>
@@ -3858,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I91" s="2">
         <v>0</v>
@@ -3880,7 +3874,7 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3913,7 +3907,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>119</v>
